--- a/tech-summary/navigation/resources/spatial_index_tmp.xlsx
+++ b/tech-summary/navigation/resources/spatial_index_tmp.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xunliu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xunliu/Desktop/git/codebear801/tech_summary/tech-summary/navigation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E2EC7-182D-DB4B-A480-3CE0AE3BE096}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="41540" yWindow="1560" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -76,6 +77,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -97,7 +101,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -135,7 +145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -173,7 +189,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -211,7 +233,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -249,7 +277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -317,7 +351,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -385,7 +425,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -453,7 +499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -521,7 +573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -611,7 +669,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="0"/>
           <a:endCxn id="3" idx="2"/>
@@ -659,7 +723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -723,7 +793,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="1"/>
           <a:endCxn id="3" idx="3"/>
@@ -771,7 +847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -861,7 +943,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="0"/>
           <a:endCxn id="25" idx="2"/>
@@ -909,7 +997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -973,7 +1067,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="1"/>
           <a:endCxn id="25" idx="3"/>
@@ -1021,7 +1121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1111,7 +1217,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="0"/>
           <a:endCxn id="33" idx="2"/>
@@ -1159,7 +1271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 42"/>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1249,7 +1367,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="1"/>
           <a:endCxn id="33" idx="3"/>
@@ -1297,7 +1421,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Connector 43"/>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="0"/>
           <a:endCxn id="43" idx="2"/>
@@ -1345,7 +1475,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="43" idx="1"/>
           <a:endCxn id="43" idx="3"/>
@@ -1393,7 +1529,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Connector 53"/>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1440,7 +1582,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="216" name="Group 215"/>
+        <xdr:cNvPr id="216" name="Group 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1453,7 +1601,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle 28"/>
+          <xdr:cNvPr id="29" name="Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1528,7 +1682,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="Straight Connector 29"/>
+          <xdr:cNvPr id="30" name="Straight Connector 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="29" idx="0"/>
             <a:endCxn id="29" idx="2"/>
@@ -1561,7 +1721,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="TextBox 30"/>
+          <xdr:cNvPr id="31" name="TextBox 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1610,7 +1776,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="Straight Connector 31"/>
+          <xdr:cNvPr id="32" name="Straight Connector 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="29" idx="1"/>
             <a:endCxn id="29" idx="3"/>
@@ -1643,7 +1815,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="50" name="Straight Connector 49"/>
+          <xdr:cNvPr id="50" name="Straight Connector 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1673,7 +1851,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="Straight Connector 50"/>
+          <xdr:cNvPr id="51" name="Straight Connector 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1705,7 +1889,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="Straight Connector 51"/>
+          <xdr:cNvPr id="52" name="Straight Connector 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1735,7 +1925,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Straight Connector 55"/>
+          <xdr:cNvPr id="56" name="Straight Connector 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1767,7 +1963,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="TextBox 62"/>
+          <xdr:cNvPr id="63" name="TextBox 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1832,7 +2034,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="TextBox 63"/>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1896,7 +2104,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Straight Connector 64"/>
+        <xdr:cNvPr id="65" name="Straight Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1941,7 +2155,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Connector 65"/>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1986,7 +2206,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Straight Connector 66"/>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2033,7 +2259,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Straight Connector 70"/>
+        <xdr:cNvPr id="71" name="Straight Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2078,7 +2310,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Straight Connector 71"/>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2123,7 +2361,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Straight Connector 73"/>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2170,7 +2414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2260,7 +2510,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Straight Connector 76"/>
+        <xdr:cNvPr id="77" name="Straight Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="76" idx="0"/>
           <a:endCxn id="76" idx="2"/>
@@ -2308,7 +2564,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Straight Connector 77"/>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="76" idx="1"/>
           <a:endCxn id="76" idx="3"/>
@@ -2356,7 +2618,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Straight Connector 79"/>
+        <xdr:cNvPr id="80" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2401,7 +2669,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Straight Connector 80"/>
+        <xdr:cNvPr id="81" name="Straight Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2448,7 +2722,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Straight Connector 81"/>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2495,7 +2775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="TextBox 127"/>
+        <xdr:cNvPr id="128" name="TextBox 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2559,7 +2845,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="Straight Connector 128"/>
+        <xdr:cNvPr id="129" name="Straight Connector 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2606,7 +2898,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Straight Connector 129"/>
+        <xdr:cNvPr id="130" name="Straight Connector 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2653,7 +2951,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="TextBox 130"/>
+        <xdr:cNvPr id="131" name="TextBox 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2717,7 +3021,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="TextBox 131"/>
+        <xdr:cNvPr id="132" name="TextBox 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2781,7 +3091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="TextBox 137"/>
+        <xdr:cNvPr id="138" name="TextBox 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2845,7 +3161,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="Straight Connector 138"/>
+        <xdr:cNvPr id="139" name="Straight Connector 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2892,7 +3214,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="Straight Connector 139"/>
+        <xdr:cNvPr id="140" name="Straight Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2939,7 +3267,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="TextBox 140"/>
+        <xdr:cNvPr id="141" name="TextBox 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3003,7 +3337,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="TextBox 141"/>
+        <xdr:cNvPr id="142" name="TextBox 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3067,7 +3407,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="TextBox 147"/>
+        <xdr:cNvPr id="148" name="TextBox 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3131,7 +3477,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="149" name="Straight Connector 148"/>
+        <xdr:cNvPr id="149" name="Straight Connector 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3178,7 +3530,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="Straight Connector 149"/>
+        <xdr:cNvPr id="150" name="Straight Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3225,7 +3583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="TextBox 150"/>
+        <xdr:cNvPr id="151" name="TextBox 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3289,7 +3653,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="TextBox 151"/>
+        <xdr:cNvPr id="152" name="TextBox 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3353,7 +3723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="Rectangle 181"/>
+        <xdr:cNvPr id="182" name="Rectangle 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3443,7 +3819,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="Straight Connector 182"/>
+        <xdr:cNvPr id="183" name="Straight Connector 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="182" idx="0"/>
           <a:endCxn id="182" idx="2"/>
@@ -3491,7 +3873,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="184" name="Straight Connector 183"/>
+        <xdr:cNvPr id="184" name="Straight Connector 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="182" idx="1"/>
           <a:endCxn id="182" idx="3"/>
@@ -3539,7 +3927,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="185" name="Straight Connector 184"/>
+        <xdr:cNvPr id="185" name="Straight Connector 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3584,7 +3978,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="186" name="Straight Connector 185"/>
+        <xdr:cNvPr id="186" name="Straight Connector 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3629,7 +4029,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="187" name="Straight Connector 186"/>
+        <xdr:cNvPr id="187" name="Straight Connector 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3676,7 +4082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="TextBox 187"/>
+        <xdr:cNvPr id="188" name="TextBox 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3740,7 +4152,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="189" name="Straight Connector 188"/>
+        <xdr:cNvPr id="189" name="Straight Connector 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3787,7 +4205,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="190" name="Straight Connector 189"/>
+        <xdr:cNvPr id="190" name="Straight Connector 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3834,7 +4258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="TextBox 190"/>
+        <xdr:cNvPr id="191" name="TextBox 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3898,7 +4328,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="TextBox 191"/>
+        <xdr:cNvPr id="192" name="TextBox 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3962,7 +4398,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="Rectangle 192"/>
+        <xdr:cNvPr id="193" name="Rectangle 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4052,7 +4494,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="194" name="Straight Connector 193"/>
+        <xdr:cNvPr id="194" name="Straight Connector 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="193" idx="0"/>
           <a:endCxn id="193" idx="2"/>
@@ -4100,7 +4548,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="195" name="Straight Connector 194"/>
+        <xdr:cNvPr id="195" name="Straight Connector 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="193" idx="1"/>
           <a:endCxn id="193" idx="3"/>
@@ -4148,7 +4602,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="Straight Connector 195"/>
+        <xdr:cNvPr id="196" name="Straight Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4193,7 +4653,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="197" name="Straight Connector 196"/>
+        <xdr:cNvPr id="197" name="Straight Connector 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4238,7 +4704,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="198" name="Straight Connector 197"/>
+        <xdr:cNvPr id="198" name="Straight Connector 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4285,7 +4757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="TextBox 198"/>
+        <xdr:cNvPr id="199" name="TextBox 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4349,7 +4827,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="200" name="Straight Connector 199"/>
+        <xdr:cNvPr id="200" name="Straight Connector 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4396,7 +4880,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="201" name="Straight Connector 200"/>
+        <xdr:cNvPr id="201" name="Straight Connector 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4443,7 +4933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="TextBox 201"/>
+        <xdr:cNvPr id="202" name="TextBox 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4507,7 +5003,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="TextBox 202"/>
+        <xdr:cNvPr id="203" name="TextBox 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4571,7 +5073,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="227" name="Group 226"/>
+        <xdr:cNvPr id="227" name="Group 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4584,7 +5092,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="228" name="Rectangle 227"/>
+          <xdr:cNvPr id="228" name="Rectangle 227">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4659,7 +5173,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="229" name="Straight Connector 228"/>
+          <xdr:cNvPr id="229" name="Straight Connector 228">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="228" idx="0"/>
             <a:endCxn id="228" idx="2"/>
@@ -4692,7 +5212,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="230" name="TextBox 229"/>
+          <xdr:cNvPr id="230" name="TextBox 229">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4741,7 +5267,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="231" name="Straight Connector 230"/>
+          <xdr:cNvPr id="231" name="Straight Connector 230">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="228" idx="1"/>
             <a:endCxn id="228" idx="3"/>
@@ -4774,7 +5306,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="232" name="Straight Connector 231"/>
+          <xdr:cNvPr id="232" name="Straight Connector 231">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4804,7 +5342,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="233" name="Straight Connector 232"/>
+          <xdr:cNvPr id="233" name="Straight Connector 232">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4836,7 +5380,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="234" name="Straight Connector 233"/>
+          <xdr:cNvPr id="234" name="Straight Connector 233">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4866,7 +5416,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="235" name="Straight Connector 234"/>
+          <xdr:cNvPr id="235" name="Straight Connector 234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4898,7 +5454,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="236" name="TextBox 235"/>
+          <xdr:cNvPr id="236" name="TextBox 235">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4963,7 +5525,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="237" name="Straight Connector 236"/>
+        <xdr:cNvPr id="237" name="Straight Connector 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5010,7 +5578,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="Rectangle 260"/>
+        <xdr:cNvPr id="261" name="Rectangle 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5100,7 +5674,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="262" name="Straight Connector 261"/>
+        <xdr:cNvPr id="262" name="Straight Connector 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="261" idx="0"/>
           <a:endCxn id="261" idx="2"/>
@@ -5148,7 +5728,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="263" name="Straight Connector 262"/>
+        <xdr:cNvPr id="263" name="Straight Connector 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="261" idx="1"/>
           <a:endCxn id="261" idx="3"/>
@@ -5196,7 +5782,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="264" name="Straight Connector 263"/>
+        <xdr:cNvPr id="264" name="Straight Connector 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5241,7 +5833,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="265" name="Straight Connector 264"/>
+        <xdr:cNvPr id="265" name="Straight Connector 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5286,7 +5884,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="266" name="Straight Connector 265"/>
+        <xdr:cNvPr id="266" name="Straight Connector 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5333,7 +5937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="TextBox 266"/>
+        <xdr:cNvPr id="267" name="TextBox 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5397,7 +6007,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="268" name="Straight Connector 267"/>
+        <xdr:cNvPr id="268" name="Straight Connector 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5444,7 +6060,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="269" name="Straight Connector 268"/>
+        <xdr:cNvPr id="269" name="Straight Connector 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5491,7 +6113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="TextBox 269"/>
+        <xdr:cNvPr id="270" name="TextBox 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5555,7 +6183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="TextBox 270"/>
+        <xdr:cNvPr id="271" name="TextBox 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5619,7 +6253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="Rectangle 282"/>
+        <xdr:cNvPr id="283" name="Rectangle 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5709,7 +6349,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="284" name="Straight Connector 283"/>
+        <xdr:cNvPr id="284" name="Straight Connector 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="283" idx="0"/>
           <a:endCxn id="283" idx="2"/>
@@ -5757,7 +6403,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="285" name="Straight Connector 284"/>
+        <xdr:cNvPr id="285" name="Straight Connector 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="283" idx="1"/>
           <a:endCxn id="283" idx="3"/>
@@ -5805,7 +6457,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="286" name="Straight Connector 285"/>
+        <xdr:cNvPr id="286" name="Straight Connector 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5850,7 +6508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="287" name="Straight Connector 286"/>
+        <xdr:cNvPr id="287" name="Straight Connector 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5895,7 +6559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="288" name="Straight Connector 287"/>
+        <xdr:cNvPr id="288" name="Straight Connector 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5942,7 +6612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="289" name="TextBox 288"/>
+        <xdr:cNvPr id="289" name="TextBox 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6006,7 +6682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="290" name="Straight Connector 289"/>
+        <xdr:cNvPr id="290" name="Straight Connector 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6053,7 +6735,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="291" name="Straight Connector 290"/>
+        <xdr:cNvPr id="291" name="Straight Connector 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6100,7 +6788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="292" name="TextBox 291"/>
+        <xdr:cNvPr id="292" name="TextBox 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6164,7 +6858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="TextBox 292"/>
+        <xdr:cNvPr id="293" name="TextBox 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6228,7 +6928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="314" name="Rectangle 313"/>
+        <xdr:cNvPr id="314" name="Rectangle 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6318,7 +7024,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="315" name="Straight Connector 314"/>
+        <xdr:cNvPr id="315" name="Straight Connector 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="314" idx="0"/>
           <a:endCxn id="314" idx="2"/>
@@ -6366,7 +7078,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="316" name="Straight Connector 315"/>
+        <xdr:cNvPr id="316" name="Straight Connector 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="314" idx="1"/>
           <a:endCxn id="314" idx="3"/>
@@ -6414,7 +7132,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="317" name="Straight Connector 316"/>
+        <xdr:cNvPr id="317" name="Straight Connector 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6459,7 +7183,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="318" name="Straight Connector 317"/>
+        <xdr:cNvPr id="318" name="Straight Connector 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6506,7 +7236,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="319" name="Straight Connector 318"/>
+        <xdr:cNvPr id="319" name="Straight Connector 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6553,7 +7289,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="320" name="TextBox 319"/>
+        <xdr:cNvPr id="320" name="TextBox 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6617,7 +7359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="321" name="Straight Connector 320"/>
+        <xdr:cNvPr id="321" name="Straight Connector 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6664,7 +7412,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="322" name="Straight Connector 321"/>
+        <xdr:cNvPr id="322" name="Straight Connector 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6711,7 +7465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="TextBox 322"/>
+        <xdr:cNvPr id="323" name="TextBox 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6775,7 +7535,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="TextBox 323"/>
+        <xdr:cNvPr id="324" name="TextBox 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6839,7 +7605,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="TextBox 328"/>
+        <xdr:cNvPr id="329" name="TextBox 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6904,7 +7676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="TextBox 329"/>
+        <xdr:cNvPr id="330" name="TextBox 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6969,7 +7747,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="TextBox 330"/>
+        <xdr:cNvPr id="331" name="TextBox 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7034,7 +7818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="TextBox 331"/>
+        <xdr:cNvPr id="332" name="TextBox 331">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7099,7 +7889,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="TextBox 342"/>
+        <xdr:cNvPr id="343" name="TextBox 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7164,7 +7960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="344" name="TextBox 343"/>
+        <xdr:cNvPr id="344" name="TextBox 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7229,7 +8031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="345" name="TextBox 344"/>
+        <xdr:cNvPr id="345" name="TextBox 344">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7294,7 +8102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="346" name="TextBox 345"/>
+        <xdr:cNvPr id="346" name="TextBox 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7359,7 +8173,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="347" name="TextBox 346"/>
+        <xdr:cNvPr id="347" name="TextBox 346">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7424,7 +8244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="TextBox 347"/>
+        <xdr:cNvPr id="348" name="TextBox 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7489,7 +8315,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="TextBox 348"/>
+        <xdr:cNvPr id="349" name="TextBox 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7554,7 +8386,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="TextBox 349"/>
+        <xdr:cNvPr id="350" name="TextBox 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7619,7 +8457,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="351" name="TextBox 350"/>
+        <xdr:cNvPr id="351" name="TextBox 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7684,7 +8528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="TextBox 351"/>
+        <xdr:cNvPr id="352" name="TextBox 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7749,7 +8599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="TextBox 352"/>
+        <xdr:cNvPr id="353" name="TextBox 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7814,7 +8670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="TextBox 353"/>
+        <xdr:cNvPr id="354" name="TextBox 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7879,7 +8741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="355" name="Picture 354"/>
+        <xdr:cNvPr id="355" name="Picture 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7917,7 +8785,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="360" name="Picture 359"/>
+        <xdr:cNvPr id="360" name="Picture 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7955,7 +8829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="361" name="Picture 360"/>
+        <xdr:cNvPr id="361" name="Picture 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7993,7 +8873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="362" name="Picture 361"/>
+        <xdr:cNvPr id="362" name="Picture 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8008,6 +8894,50 @@
         <a:xfrm rot="10800000">
           <a:off x="19608800" y="24485600"/>
           <a:ext cx="616790" cy="558802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>147</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AA3BE1-A91D-5A42-A2FA-0DEC452AEFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30886400" y="3708401"/>
+          <a:ext cx="11671300" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8281,11 +9211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V98" zoomScale="75" workbookViewId="0">
-      <selection activeCell="CA132" sqref="CA132"/>
+    <sheetView tabSelected="1" topLeftCell="L87" zoomScale="75" workbookViewId="0">
+      <selection activeCell="BT115" sqref="BT115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tech-summary/navigation/resources/spatial_index_tmp.xlsx
+++ b/tech-summary/navigation/resources/spatial_index_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xunliu/Desktop/git/codebear801/tech_summary/tech-summary/navigation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958A3868-BC71-7946-A781-E24CECE037EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959EAB2-8DF4-594F-BFA2-A9673BF471E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40000" yWindow="460" windowWidth="36800" windowHeight="20640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22968,6 +22968,5150 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>62924</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="Group 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3869F25E-EEAD-2446-A1B0-D3C59272C44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11379200" y="52459466"/>
+          <a:ext cx="4724400" cy="4499458"/>
+          <a:chOff x="11802533" y="52832000"/>
+          <a:chExt cx="2409372" cy="2294655"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="596" name="Rectangle 595">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DADC7A-0CBE-6F4D-B277-28738AA520A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11812025" y="53102746"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="597" name="Straight Connector 596">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6442565-6367-F148-A7C9-EB16F7960EF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="596" idx="0"/>
+            <a:endCxn id="596" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12886734" y="53102746"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="598" name="Straight Connector 597">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C55EFD-4DE9-C54C-97DB-DC5222180BBA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="596" idx="1"/>
+            <a:endCxn id="596" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11812025" y="54111769"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="599" name="Straight Connector 598">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6B0427-3440-4441-A3F5-6C11BD60CCF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12343656" y="53612421"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="600" name="Straight Connector 599">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42291A66-3156-7342-8933-24040020FDEC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344773" y="53599582"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="601" name="Straight Connector 600">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7EDF5B-F076-1541-8CA0-CCFB72C01679}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12329700" y="54564783"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="602" name="Straight Connector 601">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8606E36F-54AE-4E4F-9D0B-FEAF0DCE3F00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11813142" y="55123025"/>
+            <a:ext cx="2398763" cy="3630"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="603" name="Straight Connector 602">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA59DB6D-9EE3-7F44-AB9A-C15270144288}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11802533" y="52832000"/>
+            <a:ext cx="1" cy="2291025"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>79858</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="604" name="Group 603">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21379DAE-E3D6-A54A-BB41-B97A67249171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18829867" y="52476400"/>
+          <a:ext cx="4724400" cy="4499458"/>
+          <a:chOff x="11802533" y="52832000"/>
+          <a:chExt cx="2409372" cy="2294655"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="605" name="Rectangle 604">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02167B41-FBBD-D94B-BE2B-4609D5C1C9A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11812025" y="53102746"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="606" name="Straight Connector 605">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E3384-FD88-9148-9117-1D6207C2F9AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="605" idx="0"/>
+            <a:endCxn id="605" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12886734" y="53102746"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="607" name="Straight Connector 606">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4051FCC3-A7DE-5A4E-A6E6-CE4D28955C53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="605" idx="1"/>
+            <a:endCxn id="605" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11812025" y="54111769"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="608" name="Straight Connector 607">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A947A3A4-F895-6B48-8552-150B338255BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12343656" y="53612421"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="609" name="Straight Connector 608">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580D85E0-3292-5746-8BB9-93029C4325D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344773" y="53599582"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="610" name="Straight Connector 609">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003B5321-0F94-E24A-9D35-6F6562117DA5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12329700" y="54564783"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="611" name="Straight Connector 610">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAE9424-7D0A-2D4C-BE89-507CBA1553E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11813142" y="55123025"/>
+            <a:ext cx="2398763" cy="3630"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="612" name="Straight Connector 611">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B44C675-4ED3-864A-ACDA-2414861CE846}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11802533" y="52832000"/>
+            <a:ext cx="1" cy="2291025"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>130658</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="613" name="Group 612">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97FFFEA-92BF-1142-B7CC-94BA05A03828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="26077334" y="52527200"/>
+          <a:ext cx="4724400" cy="4499458"/>
+          <a:chOff x="11802533" y="52832000"/>
+          <a:chExt cx="2409372" cy="2294655"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="614" name="Rectangle 613">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BD1A1B-ECA5-E440-B27F-AE4658583398}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11812025" y="53102746"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="615" name="Straight Connector 614">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A2AB9B-925A-8744-97B4-0B3625A559DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="614" idx="0"/>
+            <a:endCxn id="614" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12886734" y="53102746"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="616" name="Straight Connector 615">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75C5A73-2B07-144A-B2FB-62F33EEEA892}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="614" idx="1"/>
+            <a:endCxn id="614" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11812025" y="54111769"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="617" name="Straight Connector 616">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6578907-F322-5747-9A47-CB602CCC923D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12343656" y="53612421"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="618" name="Straight Connector 617">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488E3CE6-5D24-9245-80F6-853DCA676BC3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344773" y="53599582"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="619" name="Straight Connector 618">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B39213-60B8-A042-8D86-9A692B343A03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12329700" y="54564783"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="620" name="Straight Connector 619">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D194824-A2C8-D147-B7A7-5699723F5FD5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11813142" y="55123025"/>
+            <a:ext cx="2398763" cy="3630"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="621" name="Straight Connector 620">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA82AA95-B3E8-E94A-8806-601D409C056D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11802533" y="52832000"/>
+            <a:ext cx="1" cy="2291025"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="622" name="Notched Right Arrow 621">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FAE777-3CB6-6744-ACAC-79FE8E508D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16137467" y="54711600"/>
+          <a:ext cx="1828800" cy="541866"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="623" name="TextBox 622">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7AA3C5-C0FF-CD49-B61B-BDA5C02C8235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16289866" y="54339067"/>
+          <a:ext cx="1845735" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Duplicate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="624" name="Notched Right Arrow 623">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18604661-A8D4-C249-9E16-F55C24CB330F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23655867" y="54813201"/>
+          <a:ext cx="1828800" cy="541866"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>135468</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="625" name="TextBox 624">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8973B051-FCFE-C042-955D-34DF158D87D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23909866" y="54423734"/>
+          <a:ext cx="1845735" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rotation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>118528</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="626" name="Group 625">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50E46E4-BBA7-384A-816A-CB8A7E8C60A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18880667" y="53018267"/>
+          <a:ext cx="762000" cy="745061"/>
+          <a:chOff x="20726400" y="33934400"/>
+          <a:chExt cx="2149417" cy="2018045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="627" name="Rectangle 626">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2723662-AF8F-8644-9F9E-F49BB26E3929}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="33934400"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="628" name="Straight Connector 627">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0D1063-EC36-2F45-8712-23FB748AF501}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="627" idx="1"/>
+            <a:endCxn id="627" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="34943423"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="629" name="Straight Connector 628">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A2878C-C027-CD47-BA09-9F7E4FD5E23E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21258031" y="34444075"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="630" name="Straight Connector 629">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783C299-F397-7844-9C7F-D3CACFEFD0C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259148" y="34431236"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="631" name="Straight Connector 630">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318B9C83-A709-8044-8C37-4E5CD5D2EB01}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21244075" y="35396437"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="632" name="Straight Connector 631">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE8C096-DEBE-0F4F-95E6-CE37B5A732F3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="627" idx="0"/>
+            <a:endCxn id="627" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21801109" y="33934400"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>118528</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="633" name="Group 632">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2AF390-36C7-1945-B0D2-27C87D2C87E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22267334" y="53018267"/>
+          <a:ext cx="762000" cy="745061"/>
+          <a:chOff x="20726400" y="33934400"/>
+          <a:chExt cx="2149417" cy="2018045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="634" name="Rectangle 633">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93299C80-5034-984E-990D-4EFE83B8E049}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="33934400"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="635" name="Straight Connector 634">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51DEA20-1521-524F-84A7-D95A3F482AE0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="634" idx="1"/>
+            <a:endCxn id="634" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="34943423"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="636" name="Straight Connector 635">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0765436-FC3E-5E4B-AE68-840DCB1A71F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21258031" y="34444075"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="637" name="Straight Connector 636">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FF723A-9A71-9248-A528-FE2778832115}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259148" y="34431236"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="638" name="Straight Connector 637">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB776EEA-30BD-DF4C-8B4B-044B87B4D4B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21244075" y="35396437"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="639" name="Straight Connector 638">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BCBEC1-23FD-8F4C-BF22-E4CFAC958BF8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="634" idx="0"/>
+            <a:endCxn id="634" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21801109" y="33934400"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>16928</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="640" name="Group 639">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DCC506-EB31-4341-9B2C-305E46DA8711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18880667" y="56167867"/>
+          <a:ext cx="762000" cy="745061"/>
+          <a:chOff x="20726400" y="33934400"/>
+          <a:chExt cx="2149417" cy="2018045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="641" name="Rectangle 640">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C6990C-57BD-6743-8AED-3FB0D7660303}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="33934400"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="642" name="Straight Connector 641">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDFE460-D5FB-7F47-A004-1F83A5FB58BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="641" idx="1"/>
+            <a:endCxn id="641" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="34943423"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="643" name="Straight Connector 642">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F6C41-FB3B-E24B-B0ED-156CD784B292}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21258031" y="34444075"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="644" name="Straight Connector 643">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A29D88-9A76-2A47-9D09-FDE47D9F41F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259148" y="34431236"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="645" name="Straight Connector 644">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F543190-9D8D-5E46-A04D-B06E8CB3485D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21244075" y="35396437"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="646" name="Straight Connector 645">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA40FE4-A6EC-D84B-AC7F-0102C0173733}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="641" idx="0"/>
+            <a:endCxn id="641" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21801109" y="33934400"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>203194</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="647" name="Group 646">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F7B9A9-C810-364B-B0CD-1A5C24B0FCA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="22284266" y="56150933"/>
+          <a:ext cx="762000" cy="745061"/>
+          <a:chOff x="20726400" y="33934400"/>
+          <a:chExt cx="2149417" cy="2018045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="648" name="Rectangle 647">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA933AA-4A07-3544-AA3B-3E5681476C12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="33934400"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="649" name="Straight Connector 648">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CA85FC-BF77-C64D-88C4-3A5A75D539E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="648" idx="1"/>
+            <a:endCxn id="648" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="34943423"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="650" name="Straight Connector 649">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12E1A85-CCF9-9C42-BA4A-7CA2053DFDDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21258031" y="34444075"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="651" name="Straight Connector 650">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8847F294-F528-8444-B556-54D9547B7493}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259148" y="34431236"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="652" name="Straight Connector 651">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5802977-7988-EA4B-91FB-0AAC1F0AD177}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21244075" y="35396437"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="653" name="Straight Connector 652">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2743983-75DB-7E46-BE4A-9B76700ECA18}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="648" idx="0"/>
+            <a:endCxn id="648" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21801109" y="33934400"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>169328</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="654" name="Group 653">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2F8036-FE4C-E549-B3DF-B6C5591E5EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="26111200" y="53069067"/>
+          <a:ext cx="762000" cy="745061"/>
+          <a:chOff x="20726400" y="33934400"/>
+          <a:chExt cx="2149417" cy="2018045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="655" name="Rectangle 654">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50657C0A-F176-2D48-BF6E-ECDF116FAB34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="33934400"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="656" name="Straight Connector 655">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BCF55D-7CE9-7843-8311-C38E52DE41C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="655" idx="1"/>
+            <a:endCxn id="655" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="34943423"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="657" name="Straight Connector 656">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767C3E73-E290-E04E-84D8-C5FE1082E2FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21258031" y="34444075"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="658" name="Straight Connector 657">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0AEF67-77B0-B44E-8373-3D2086204886}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259148" y="34431236"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="659" name="Straight Connector 658">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8A8FB7-9090-D247-A2B3-E2608FDF5F8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21244075" y="35396437"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="660" name="Straight Connector 659">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E47511B-0992-3042-9A6F-8B8F7F142519}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="655" idx="0"/>
+            <a:endCxn id="655" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21801109" y="33934400"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>84661</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="661" name="Group 660">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BEAB8A-61E6-EF43-81F1-EB9F185A8A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="26128134" y="56235600"/>
+          <a:ext cx="762000" cy="745061"/>
+          <a:chOff x="20726400" y="33934400"/>
+          <a:chExt cx="2149417" cy="2018045"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="662" name="Rectangle 661">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8738B58F-B1A6-854F-B802-72AF6C18579B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="33934400"/>
+            <a:ext cx="2149417" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="663" name="Straight Connector 662">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C08CE2-0559-CD4D-BC16-D4CA86930E10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="662" idx="1"/>
+            <a:endCxn id="662" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20726400" y="34943423"/>
+            <a:ext cx="2149417" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="664" name="Straight Connector 663">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745FF92F-7587-FD4F-8439-DA3138D1267E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21258031" y="34444075"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="665" name="Straight Connector 664">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B26489-5810-124D-9CAB-C2E4AC50180D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259148" y="34431236"/>
+            <a:ext cx="0" cy="994230"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="666" name="Straight Connector 665">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83917057-F2EF-2E4D-88C0-4B8D349D486A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21244075" y="35396437"/>
+            <a:ext cx="1082802" cy="1116"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="667" name="Straight Connector 666">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1537C3CF-C922-FC46-9D36-F6CC5DA53896}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="662" idx="0"/>
+            <a:endCxn id="662" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21801109" y="33934400"/>
+            <a:ext cx="0" cy="2018045"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>220134</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>96446</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>169331</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="668" name="Group 667">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DB76ED-D9D6-2648-BA86-21996B3188E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="29294667" y="53052133"/>
+          <a:ext cx="1027779" cy="965198"/>
+          <a:chOff x="16408400" y="36982400"/>
+          <a:chExt cx="2148037" cy="2017245"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="669" name="Group 668">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FD52E8-3206-A448-9433-EABE93E94299}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="16408400" y="36982400"/>
+            <a:ext cx="2148037" cy="2017245"/>
+            <a:chOff x="16408400" y="36982400"/>
+            <a:chExt cx="2148037" cy="2017245"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="671" name="Rectangle 670">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E715FE-1F47-AF41-8463-4F98F35E0502}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16408400" y="36982400"/>
+              <a:ext cx="2148037" cy="2017245"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="672" name="Straight Connector 671">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CE87D6-A0D2-6B4C-AA9E-FDD2820A336E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="671" idx="1"/>
+              <a:endCxn id="671" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16408400" y="37991023"/>
+              <a:ext cx="2148037" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="673" name="Straight Connector 672">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747595B3-F294-4144-846D-230730920A03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16929695" y="37512570"/>
+              <a:ext cx="0" cy="988315"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450">
+              <a:headEnd type="stealth"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="674" name="Straight Connector 673">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF63ED0-4F87-C14B-84E6-E3D897793012}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18038601" y="37525026"/>
+              <a:ext cx="0" cy="988315"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450">
+              <a:headEnd type="none"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="675" name="Straight Connector 674">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAEF54C-151B-7443-A3A2-AF360396D2A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16969579" y="38475664"/>
+              <a:ext cx="1082379" cy="1083"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="670" name="Straight Connector 669">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147D7DA1-1926-884A-A5EC-87B6B5C28D28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="671" idx="0"/>
+            <a:endCxn id="671" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17482419" y="36982400"/>
+            <a:ext cx="0" cy="2017245"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>82174</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="676" name="Group 675">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A481941-6EB4-D640-9B20-480777A5B859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="29514799" y="56201733"/>
+          <a:ext cx="793375" cy="745067"/>
+          <a:chOff x="16408400" y="36982400"/>
+          <a:chExt cx="2148037" cy="2017245"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="677" name="Group 676">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9C6E94-4BA5-8D47-AB27-09362E799C22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="16408400" y="36982400"/>
+            <a:ext cx="2148037" cy="2017245"/>
+            <a:chOff x="16408400" y="36982400"/>
+            <a:chExt cx="2148037" cy="2017245"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="679" name="Rectangle 678">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F57352B-89FB-9445-8726-C118F5E851A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16408400" y="36982400"/>
+              <a:ext cx="2148037" cy="2017245"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="680" name="Straight Connector 679">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29587D04-0B97-A44A-93BD-46EC7F3AE3B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="679" idx="1"/>
+              <a:endCxn id="679" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16408400" y="37991023"/>
+              <a:ext cx="2148037" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="681" name="Straight Connector 680">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EE0ACB-EB6D-7A43-A5FF-1181C1499EAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16929695" y="37512570"/>
+              <a:ext cx="0" cy="988315"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="682" name="Straight Connector 681">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6678097A-27F0-344C-9009-04039A458A0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18038601" y="37525026"/>
+              <a:ext cx="0" cy="988315"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450">
+              <a:tailEnd type="stealth"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="683" name="Straight Connector 682">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A66222-E7FC-9D48-9681-144AF077753F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16957374" y="37511488"/>
+              <a:ext cx="1082379" cy="1083"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="678" name="Straight Connector 677">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DD22E5-8490-3C48-9E6D-E8E55341DC60}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="679" idx="0"/>
+            <a:endCxn id="679" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17482419" y="36982400"/>
+            <a:ext cx="0" cy="2017245"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="708" name="Group 707">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E10CB6-CA2F-684B-B55A-E135FB29061C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13241867" y="63195200"/>
+          <a:ext cx="5672666" cy="4944533"/>
+          <a:chOff x="10528439" y="9634136"/>
+          <a:chExt cx="2964637" cy="2787860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="709" name="Straight Connector 708">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D94399-071A-D54E-A102-4B03D78DD8AF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11103058" y="11953073"/>
+            <a:ext cx="2390018" cy="3630"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="44450">
+            <a:tailEnd type="stealth"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="710" name="Group 709">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87442B34-5F05-A446-8C10-C050E799DE5E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10528439" y="9634136"/>
+            <a:ext cx="2739109" cy="2787860"/>
+            <a:chOff x="10213591" y="9922747"/>
+            <a:chExt cx="2651650" cy="2873829"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="711" name="Rectangle 710">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FE4DB2-F2C9-DC4F-85AB-744E9DF60D5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10785790" y="10199635"/>
+              <a:ext cx="2079451" cy="2079451"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="712" name="Straight Connector 711">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B256E172-FB9A-314B-A287-AE5D56C86A6C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="711" idx="0"/>
+              <a:endCxn id="711" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11825516" y="10199635"/>
+              <a:ext cx="0" cy="2079451"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="713" name="TextBox 712">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCEE167-1DC2-3C4C-88FB-87429BF4C812}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10213591" y="12334908"/>
+              <a:ext cx="588386" cy="365092"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>(0,0)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="714" name="Straight Connector 713">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C2EE1B-17AB-3B4E-A606-535221C36CF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="711" idx="1"/>
+              <a:endCxn id="711" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10785790" y="11239361"/>
+              <a:ext cx="2079451" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="715" name="Straight Connector 714">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A901F64D-0AB5-C240-A674-145BAE0CD525}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11290440" y="10746154"/>
+              <a:ext cx="0" cy="1018792"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="716" name="Straight Connector 715">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F0C948-69DD-C240-9EB1-93B33083AC89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12363939" y="10758994"/>
+              <a:ext cx="0" cy="1018792"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450">
+              <a:tailEnd type="stealth"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="717" name="Straight Connector 716">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97644D8E-F2E8-CB45-B8D6-2616987B3F44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11317236" y="10745038"/>
+              <a:ext cx="1047819" cy="1116"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="718" name="Straight Connector 717">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11426BE7-6DAB-084C-87BD-57CBC4DCF772}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="10760109" y="9922747"/>
+              <a:ext cx="1" cy="2358572"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="44450">
+              <a:tailEnd type="stealth"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="719" name="TextBox 718">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B3A831-014F-A94D-8250-187A3067F60F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11719727" y="12431484"/>
+              <a:ext cx="588386" cy="365092"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>182033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E34425-1981-B346-AE30-67093911D2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16696267" y="72610133"/>
+          <a:ext cx="2603500" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>84668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BB6A86-A738-F843-96D7-1EEDC63A8557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13885333" y="74252668"/>
+          <a:ext cx="2705100" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>84668</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>97368</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="732" name="Picture 731">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70982056-28F5-E248-A440-2E9B445D729B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13902268" y="71069199"/>
+          <a:ext cx="2603500" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="733" name="Picture 732">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88DD5FC-AC6D-2C40-8C25-3225B9271F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19253201" y="70950666"/>
+          <a:ext cx="2603500" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E648F0B-81C0-DC44-8730-50CA53D3ABC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19219333" y="74320399"/>
+          <a:ext cx="2603500" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>33865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>101598</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Down Arrow 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C151A74A-047C-384B-9244-86E2C2A0B8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18795414">
+          <a:off x="18711333" y="74574399"/>
+          <a:ext cx="474133" cy="948266"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="734" name="Down Arrow 733">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9EB189-C629-9146-92EF-CC94EE0F8D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13928855">
+          <a:off x="18829866" y="72169867"/>
+          <a:ext cx="474133" cy="948266"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="735" name="Down Arrow 734">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AE4E5A-6C08-BB4E-A7BD-752E37EEE68C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7561642">
+          <a:off x="16510000" y="72136001"/>
+          <a:ext cx="474133" cy="948266"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>33865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>101598</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="736" name="Down Arrow 735">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E26137C-B84E-104A-A415-45E1C8ECEB3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2767401">
+          <a:off x="16645466" y="74574399"/>
+          <a:ext cx="474133" cy="948266"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40169121-280C-3846-B6E1-B0057CFF30C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17102667" y="75031600"/>
+          <a:ext cx="626533" cy="440267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="737" name="TextBox 736">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282B1759-A31D-E948-92FE-96F746A19071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16865600" y="71865067"/>
+          <a:ext cx="626533" cy="440267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="738" name="TextBox 737">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D537F3DF-497F-D744-B922-D3E35CC582D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18525067" y="71882001"/>
+          <a:ext cx="626533" cy="440267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>135468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="739" name="TextBox 738">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C854BB-3F98-9548-A9B1-E779E121E2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18237200" y="75082401"/>
+          <a:ext cx="626533" cy="440267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="3000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23236,8 +28380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF208" zoomScale="75" workbookViewId="0">
-      <selection activeCell="DG212" sqref="DG212"/>
+    <sheetView tabSelected="1" topLeftCell="N343" zoomScale="75" workbookViewId="0">
+      <selection activeCell="BW389" sqref="BW389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tech-summary/navigation/resources/spatial_index_tmp.xlsx
+++ b/tech-summary/navigation/resources/spatial_index_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xunliu/Desktop/git/codebear801/tech_summary/tech-summary/navigation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959EAB2-8DF4-594F-BFA2-A9673BF471E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A3094-1A4D-9345-A0C3-AF01EBFCBBCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40000" yWindow="460" windowWidth="36800" windowHeight="20640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27595,15 +27595,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>33865</xdr:rowOff>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>186264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>135466</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
       <xdr:row>370</xdr:row>
-      <xdr:rowOff>101598</xdr:rowOff>
+      <xdr:rowOff>50797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27618,7 +27618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18795414">
-          <a:off x="18711333" y="74574399"/>
+          <a:off x="18931467" y="74523598"/>
           <a:ext cx="474133" cy="948266"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -28050,10 +28050,10 @@
       <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>135468</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28069,7 +28069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18237200" y="75082401"/>
-          <a:ext cx="626533" cy="440267"/>
+          <a:ext cx="795867" cy="575732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28380,8 +28380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N343" zoomScale="75" workbookViewId="0">
-      <selection activeCell="BW389" sqref="BW389"/>
+    <sheetView tabSelected="1" topLeftCell="R339" zoomScale="75" workbookViewId="0">
+      <selection activeCell="CA358" sqref="CA358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tech-summary/navigation/resources/spatial_index_tmp.xlsx
+++ b/tech-summary/navigation/resources/spatial_index_tmp.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xunliu/Desktop/git/codebear801/tech_summary/tech-summary/navigation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A3094-1A4D-9345-A0C3-AF01EBFCBBCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40000" yWindow="460" windowWidth="36800" windowHeight="20640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,7 +103,7 @@
         <xdr:cNvPr id="359" name="Group 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2F2412-C23E-4142-989A-F859399729EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D2F2412-C23E-4142-989A-F859399729EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -123,7 +122,7 @@
           <xdr:cNvPr id="363" name="Straight Connector 362">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96E1E73-A48E-2146-ABEE-937DF31A6B79}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D96E1E73-A48E-2146-ABEE-937DF31A6B79}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -161,7 +160,7 @@
           <xdr:cNvPr id="364" name="Group 363">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613D88AF-F283-0245-B112-3446B180903E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{613D88AF-F283-0245-B112-3446B180903E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -180,7 +179,7 @@
             <xdr:cNvPr id="365" name="Rectangle 364">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89382A28-96F4-A148-A582-D4331ADF60D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89382A28-96F4-A148-A582-D4331ADF60D6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -261,7 +260,7 @@
             <xdr:cNvPr id="366" name="Straight Connector 365">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C6F667-8284-2349-9010-AF1A7D5BACA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7C6F667-8284-2349-9010-AF1A7D5BACA3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -300,7 +299,7 @@
             <xdr:cNvPr id="367" name="TextBox 366">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52DBFBC-CB09-7C4A-A4CF-E4B4696AEC9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C52DBFBC-CB09-7C4A-A4CF-E4B4696AEC9D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -355,7 +354,7 @@
             <xdr:cNvPr id="368" name="Straight Connector 367">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B8A976-B430-2746-8714-85839962509B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41B8A976-B430-2746-8714-85839962509B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -394,7 +393,7 @@
             <xdr:cNvPr id="369" name="Straight Connector 368">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05611CF-DDD5-C547-A393-3E6C5BE64849}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D05611CF-DDD5-C547-A393-3E6C5BE64849}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -430,7 +429,7 @@
             <xdr:cNvPr id="370" name="Straight Connector 369">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77869629-BB6D-0447-9D1B-D320BC26AAF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77869629-BB6D-0447-9D1B-D320BC26AAF2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -468,7 +467,7 @@
             <xdr:cNvPr id="371" name="Straight Connector 370">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25D211A-4E5D-9C4F-BF00-31399F4CEF21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B25D211A-4E5D-9C4F-BF00-31399F4CEF21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -504,7 +503,7 @@
             <xdr:cNvPr id="372" name="Straight Connector 371">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0AE319-F80D-984E-82A3-32B8AC574489}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C0AE319-F80D-984E-82A3-32B8AC574489}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -542,7 +541,7 @@
             <xdr:cNvPr id="373" name="TextBox 372">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57B20CB-9AFE-494D-9B00-84C99CC45AD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C57B20CB-9AFE-494D-9B00-84C99CC45AD2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -614,7 +613,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -658,7 +657,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +701,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +745,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +789,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -864,7 +863,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +937,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,7 +1011,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1085,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1181,7 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1235,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1305,7 @@
         <xdr:cNvPr id="16" name="Straight Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1359,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1455,7 @@
         <xdr:cNvPr id="26" name="Straight Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1509,7 @@
         <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1579,7 @@
         <xdr:cNvPr id="28" name="Straight Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1633,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1729,7 @@
         <xdr:cNvPr id="34" name="Straight Connector 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1783,7 @@
         <xdr:cNvPr id="43" name="Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1879,7 @@
         <xdr:cNvPr id="36" name="Straight Connector 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1933,7 @@
         <xdr:cNvPr id="44" name="Straight Connector 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1987,7 @@
         <xdr:cNvPr id="46" name="Straight Connector 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2041,7 @@
         <xdr:cNvPr id="14" name="Group 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98ECF29E-8D29-F646-BFC2-909974F64C93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98ECF29E-8D29-F646-BFC2-909974F64C93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2060,7 @@
           <xdr:cNvPr id="54" name="Straight Connector 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2099,7 +2098,7 @@
           <xdr:cNvPr id="216" name="Group 215">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2118,7 +2117,7 @@
             <xdr:cNvPr id="29" name="Rectangle 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2199,7 +2198,7 @@
             <xdr:cNvPr id="30" name="Straight Connector 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2238,7 +2237,7 @@
             <xdr:cNvPr id="31" name="TextBox 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2293,7 +2292,7 @@
             <xdr:cNvPr id="32" name="Straight Connector 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2332,7 +2331,7 @@
             <xdr:cNvPr id="50" name="Straight Connector 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2368,7 +2367,7 @@
             <xdr:cNvPr id="51" name="Straight Connector 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2406,7 +2405,7 @@
             <xdr:cNvPr id="52" name="Straight Connector 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2442,7 +2441,7 @@
             <xdr:cNvPr id="56" name="Straight Connector 55">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2480,7 +2479,7 @@
             <xdr:cNvPr id="63" name="TextBox 62">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2552,7 +2551,7 @@
         <xdr:cNvPr id="64" name="TextBox 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2621,7 @@
         <xdr:cNvPr id="65" name="Straight Connector 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2672,7 @@
         <xdr:cNvPr id="66" name="Straight Connector 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2723,7 @@
         <xdr:cNvPr id="67" name="Straight Connector 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2776,7 @@
         <xdr:cNvPr id="71" name="Straight Connector 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2827,7 @@
         <xdr:cNvPr id="72" name="Straight Connector 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2878,7 @@
         <xdr:cNvPr id="74" name="Straight Connector 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2931,7 @@
         <xdr:cNvPr id="76" name="Rectangle 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3027,7 @@
         <xdr:cNvPr id="77" name="Straight Connector 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3081,7 @@
         <xdr:cNvPr id="78" name="Straight Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +3135,7 @@
         <xdr:cNvPr id="80" name="Straight Connector 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3186,7 @@
         <xdr:cNvPr id="81" name="Straight Connector 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3239,7 @@
         <xdr:cNvPr id="82" name="Straight Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3292,7 @@
         <xdr:cNvPr id="128" name="TextBox 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3362,7 @@
         <xdr:cNvPr id="129" name="Straight Connector 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3415,7 @@
         <xdr:cNvPr id="130" name="Straight Connector 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3468,7 @@
         <xdr:cNvPr id="131" name="TextBox 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3538,7 @@
         <xdr:cNvPr id="132" name="TextBox 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3609,7 +3608,7 @@
         <xdr:cNvPr id="138" name="TextBox 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3678,7 @@
         <xdr:cNvPr id="139" name="Straight Connector 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3732,7 +3731,7 @@
         <xdr:cNvPr id="140" name="Straight Connector 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3785,7 +3784,7 @@
         <xdr:cNvPr id="141" name="TextBox 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,7 +3854,7 @@
         <xdr:cNvPr id="142" name="TextBox 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,7 +3924,7 @@
         <xdr:cNvPr id="148" name="TextBox 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,7 +3994,7 @@
         <xdr:cNvPr id="149" name="Straight Connector 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,7 +4047,7 @@
         <xdr:cNvPr id="150" name="Straight Connector 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4101,7 +4100,7 @@
         <xdr:cNvPr id="151" name="TextBox 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4171,7 +4170,7 @@
         <xdr:cNvPr id="152" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4241,7 +4240,7 @@
         <xdr:cNvPr id="182" name="Rectangle 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,7 +4336,7 @@
         <xdr:cNvPr id="183" name="Straight Connector 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4391,7 +4390,7 @@
         <xdr:cNvPr id="184" name="Straight Connector 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4445,7 +4444,7 @@
         <xdr:cNvPr id="185" name="Straight Connector 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4496,7 +4495,7 @@
         <xdr:cNvPr id="186" name="Straight Connector 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,7 +4546,7 @@
         <xdr:cNvPr id="187" name="Straight Connector 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4600,7 +4599,7 @@
         <xdr:cNvPr id="188" name="TextBox 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4670,7 +4669,7 @@
         <xdr:cNvPr id="189" name="Straight Connector 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4723,7 +4722,7 @@
         <xdr:cNvPr id="190" name="Straight Connector 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4776,7 +4775,7 @@
         <xdr:cNvPr id="191" name="TextBox 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4846,7 +4845,7 @@
         <xdr:cNvPr id="192" name="TextBox 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4915,7 @@
         <xdr:cNvPr id="193" name="Rectangle 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5012,7 +5011,7 @@
         <xdr:cNvPr id="194" name="Straight Connector 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5065,7 @@
         <xdr:cNvPr id="195" name="Straight Connector 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5120,7 +5119,7 @@
         <xdr:cNvPr id="196" name="Straight Connector 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5171,7 +5170,7 @@
         <xdr:cNvPr id="197" name="Straight Connector 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5222,7 +5221,7 @@
         <xdr:cNvPr id="198" name="Straight Connector 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5275,7 +5274,7 @@
         <xdr:cNvPr id="199" name="TextBox 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5345,7 +5344,7 @@
         <xdr:cNvPr id="200" name="Straight Connector 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5398,7 +5397,7 @@
         <xdr:cNvPr id="201" name="Straight Connector 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5451,7 +5450,7 @@
         <xdr:cNvPr id="202" name="TextBox 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5521,7 +5520,7 @@
         <xdr:cNvPr id="203" name="TextBox 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5591,7 +5590,7 @@
         <xdr:cNvPr id="227" name="Group 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5610,7 +5609,7 @@
           <xdr:cNvPr id="228" name="Rectangle 227">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5691,7 +5690,7 @@
           <xdr:cNvPr id="229" name="Straight Connector 228">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5730,7 +5729,7 @@
           <xdr:cNvPr id="230" name="TextBox 229">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5785,7 +5784,7 @@
           <xdr:cNvPr id="231" name="Straight Connector 230">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E7000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5824,7 +5823,7 @@
           <xdr:cNvPr id="232" name="Straight Connector 231">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E8000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5860,7 +5859,7 @@
           <xdr:cNvPr id="233" name="Straight Connector 232">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000E9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5898,7 +5897,7 @@
           <xdr:cNvPr id="234" name="Straight Connector 233">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000EA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5934,7 +5933,7 @@
           <xdr:cNvPr id="235" name="Straight Connector 234">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000EB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5972,7 +5971,7 @@
           <xdr:cNvPr id="236" name="TextBox 235">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000EC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6043,7 +6042,7 @@
         <xdr:cNvPr id="237" name="Straight Connector 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000ED000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6096,7 +6095,7 @@
         <xdr:cNvPr id="261" name="Rectangle 260">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6192,7 +6191,7 @@
         <xdr:cNvPr id="262" name="Straight Connector 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6246,7 +6245,7 @@
         <xdr:cNvPr id="263" name="Straight Connector 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6300,7 +6299,7 @@
         <xdr:cNvPr id="264" name="Straight Connector 263">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6351,7 +6350,7 @@
         <xdr:cNvPr id="265" name="Straight Connector 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6402,7 +6401,7 @@
         <xdr:cNvPr id="266" name="Straight Connector 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6455,7 +6454,7 @@
         <xdr:cNvPr id="267" name="TextBox 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6525,7 +6524,7 @@
         <xdr:cNvPr id="268" name="Straight Connector 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6577,7 @@
         <xdr:cNvPr id="269" name="Straight Connector 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6631,7 +6630,7 @@
         <xdr:cNvPr id="270" name="TextBox 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6701,7 +6700,7 @@
         <xdr:cNvPr id="271" name="TextBox 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6771,7 +6770,7 @@
         <xdr:cNvPr id="283" name="Rectangle 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6867,7 +6866,7 @@
         <xdr:cNvPr id="284" name="Straight Connector 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6921,7 +6920,7 @@
         <xdr:cNvPr id="285" name="Straight Connector 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6975,7 +6974,7 @@
         <xdr:cNvPr id="286" name="Straight Connector 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7026,7 +7025,7 @@
         <xdr:cNvPr id="287" name="Straight Connector 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7077,7 +7076,7 @@
         <xdr:cNvPr id="288" name="Straight Connector 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7129,7 @@
         <xdr:cNvPr id="289" name="TextBox 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7200,7 +7199,7 @@
         <xdr:cNvPr id="290" name="Straight Connector 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7253,7 +7252,7 @@
         <xdr:cNvPr id="291" name="Straight Connector 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7306,7 +7305,7 @@
         <xdr:cNvPr id="292" name="TextBox 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7376,7 +7375,7 @@
         <xdr:cNvPr id="293" name="TextBox 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7446,7 +7445,7 @@
         <xdr:cNvPr id="314" name="Rectangle 313">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7542,7 +7541,7 @@
         <xdr:cNvPr id="315" name="Straight Connector 314">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7596,7 +7595,7 @@
         <xdr:cNvPr id="316" name="Straight Connector 315">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7650,7 +7649,7 @@
         <xdr:cNvPr id="317" name="Straight Connector 316">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7701,7 +7700,7 @@
         <xdr:cNvPr id="318" name="Straight Connector 317">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7754,7 +7753,7 @@
         <xdr:cNvPr id="319" name="Straight Connector 318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7807,7 +7806,7 @@
         <xdr:cNvPr id="320" name="TextBox 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7877,7 +7876,7 @@
         <xdr:cNvPr id="321" name="Straight Connector 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7930,7 +7929,7 @@
         <xdr:cNvPr id="322" name="Straight Connector 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7983,7 +7982,7 @@
         <xdr:cNvPr id="323" name="TextBox 322">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8053,7 +8052,7 @@
         <xdr:cNvPr id="324" name="TextBox 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8123,7 +8122,7 @@
         <xdr:cNvPr id="329" name="TextBox 328">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8194,7 +8193,7 @@
         <xdr:cNvPr id="330" name="TextBox 329">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8265,7 +8264,7 @@
         <xdr:cNvPr id="331" name="TextBox 330">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8336,7 +8335,7 @@
         <xdr:cNvPr id="332" name="TextBox 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8407,7 +8406,7 @@
         <xdr:cNvPr id="343" name="TextBox 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000057010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8477,7 @@
         <xdr:cNvPr id="344" name="TextBox 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000058010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8549,7 +8548,7 @@
         <xdr:cNvPr id="345" name="TextBox 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000059010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8620,7 +8619,7 @@
         <xdr:cNvPr id="346" name="TextBox 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8691,7 +8690,7 @@
         <xdr:cNvPr id="347" name="TextBox 346">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8762,7 +8761,7 @@
         <xdr:cNvPr id="348" name="TextBox 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8833,7 +8832,7 @@
         <xdr:cNvPr id="349" name="TextBox 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8904,7 +8903,7 @@
         <xdr:cNvPr id="350" name="TextBox 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8975,7 +8974,7 @@
         <xdr:cNvPr id="351" name="TextBox 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00005F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9046,7 +9045,7 @@
         <xdr:cNvPr id="352" name="TextBox 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9117,7 +9116,7 @@
         <xdr:cNvPr id="353" name="TextBox 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9188,7 +9187,7 @@
         <xdr:cNvPr id="354" name="TextBox 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000062010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9259,7 +9258,7 @@
         <xdr:cNvPr id="355" name="Picture 354">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9303,7 +9302,7 @@
         <xdr:cNvPr id="360" name="Picture 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9347,7 +9346,7 @@
         <xdr:cNvPr id="361" name="Picture 360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9391,7 +9390,7 @@
         <xdr:cNvPr id="362" name="Picture 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9435,7 +9434,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AA3BE1-A91D-5A42-A2FA-0DEC452AEFDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6AA3BE1-A91D-5A42-A2FA-0DEC452AEFDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9479,7 +9478,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2E6451-6B7C-A04B-98FF-B7A3B793985C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E2E6451-6B7C-A04B-98FF-B7A3B793985C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9523,7 +9522,7 @@
         <xdr:cNvPr id="153" name="Picture 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD4D57B-4C72-104E-82EC-016BACEEE25A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD4D57B-4C72-104E-82EC-016BACEEE25A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9567,7 +9566,7 @@
         <xdr:cNvPr id="176" name="Group 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7530304C-7911-834D-85FC-356203B3167A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7530304C-7911-834D-85FC-356203B3167A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9586,7 +9585,7 @@
           <xdr:cNvPr id="177" name="Straight Connector 176">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641583B2-E06E-4E4A-B648-CC16528B346A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{641583B2-E06E-4E4A-B648-CC16528B346A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9624,7 +9623,7 @@
           <xdr:cNvPr id="178" name="Group 177">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DC4D3F-7886-0746-9DBA-91A0CF29CBED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00DC4D3F-7886-0746-9DBA-91A0CF29CBED}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9643,7 +9642,7 @@
             <xdr:cNvPr id="179" name="Rectangle 178">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720E1C17-85B7-BB43-84A8-CF8155D249E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{720E1C17-85B7-BB43-84A8-CF8155D249E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9724,7 +9723,7 @@
             <xdr:cNvPr id="180" name="Straight Connector 179">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBB01E6-282C-CE4B-A407-059B88776781}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBBB01E6-282C-CE4B-A407-059B88776781}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9763,7 +9762,7 @@
             <xdr:cNvPr id="181" name="TextBox 180">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A258B1EB-D983-3640-B72C-68A49CF26310}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A258B1EB-D983-3640-B72C-68A49CF26310}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9818,7 +9817,7 @@
             <xdr:cNvPr id="204" name="Straight Connector 203">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BD04C1-1A87-1B40-B6C9-21D8D110E8EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0BD04C1-1A87-1B40-B6C9-21D8D110E8EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9857,7 +9856,7 @@
             <xdr:cNvPr id="205" name="Straight Connector 204">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06131F06-A1BD-0B44-AB49-D5A0AC1C9379}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06131F06-A1BD-0B44-AB49-D5A0AC1C9379}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9893,7 +9892,7 @@
             <xdr:cNvPr id="206" name="Straight Connector 205">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BD4F8F-B5B6-C84D-A7D5-2E44CE2492D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80BD4F8F-B5B6-C84D-A7D5-2E44CE2492D4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9931,7 +9930,7 @@
             <xdr:cNvPr id="207" name="Straight Connector 206">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A2028E-183B-3449-B9A0-BC5C064D1069}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34A2028E-183B-3449-B9A0-BC5C064D1069}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9967,7 +9966,7 @@
             <xdr:cNvPr id="208" name="Straight Connector 207">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62BD59F-D800-2643-A059-361F0FBB90DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C62BD59F-D800-2643-A059-361F0FBB90DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10005,7 +10004,7 @@
             <xdr:cNvPr id="209" name="TextBox 208">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAF0BF2-AE6B-D346-A605-3C4F93C1B3E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAAF0BF2-AE6B-D346-A605-3C4F93C1B3E4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10077,7 +10076,7 @@
         <xdr:cNvPr id="278" name="Group 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77995028-6A35-5A47-81C2-0C845A627DA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77995028-6A35-5A47-81C2-0C845A627DA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10096,7 +10095,7 @@
           <xdr:cNvPr id="279" name="Straight Connector 278">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C543A-DCBD-A949-9CE0-4D5882EE6404}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF7C543A-DCBD-A949-9CE0-4D5882EE6404}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10134,7 +10133,7 @@
           <xdr:cNvPr id="280" name="Group 279">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B684D66-CFAB-0140-A4AD-09A7EF556625}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B684D66-CFAB-0140-A4AD-09A7EF556625}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10153,7 +10152,7 @@
             <xdr:cNvPr id="281" name="Rectangle 280">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43EBE16-C93C-CE4D-9E7C-9AA9C0678806}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E43EBE16-C93C-CE4D-9E7C-9AA9C0678806}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10234,7 +10233,7 @@
             <xdr:cNvPr id="282" name="Straight Connector 281">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00AB35A-4C82-AA46-A6B6-22D8AB27E796}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F00AB35A-4C82-AA46-A6B6-22D8AB27E796}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10273,7 +10272,7 @@
             <xdr:cNvPr id="294" name="TextBox 293">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919FDA6D-3C21-214E-8F0D-EBAA884F358D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{919FDA6D-3C21-214E-8F0D-EBAA884F358D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10328,7 +10327,7 @@
             <xdr:cNvPr id="295" name="Straight Connector 294">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1614FD85-0D28-4B45-A361-69B9B7AD5A53}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1614FD85-0D28-4B45-A361-69B9B7AD5A53}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10367,7 +10366,7 @@
             <xdr:cNvPr id="296" name="Straight Connector 295">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C64BAC-02B6-B04D-B4D1-7CBD6C762AFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4C64BAC-02B6-B04D-B4D1-7CBD6C762AFA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10403,7 +10402,7 @@
             <xdr:cNvPr id="297" name="Straight Connector 296">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F56245D-99CB-B742-B174-5B0AAB1E9521}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2F56245D-99CB-B742-B174-5B0AAB1E9521}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10441,7 +10440,7 @@
             <xdr:cNvPr id="298" name="Straight Connector 297">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FFE239-E698-F04B-BA27-9B0681BE8FCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8FFE239-E698-F04B-BA27-9B0681BE8FCC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10477,7 +10476,7 @@
             <xdr:cNvPr id="299" name="Straight Connector 298">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030E15F7-E78A-5F4C-943E-E9F300990558}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{030E15F7-E78A-5F4C-943E-E9F300990558}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10515,7 +10514,7 @@
             <xdr:cNvPr id="300" name="TextBox 299">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FA331A-1E83-064F-9531-67040868B120}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9FA331A-1E83-064F-9531-67040868B120}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10587,7 +10586,7 @@
         <xdr:cNvPr id="45" name="Notched Right Arrow 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4413FF83-74FC-B748-9103-3B83F7EB042C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4413FF83-74FC-B748-9103-3B83F7EB042C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10647,7 +10646,7 @@
         <xdr:cNvPr id="47" name="TextBox 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8315D0DD-9AB3-DE41-91C4-645D726BE90B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8315D0DD-9AB3-DE41-91C4-645D726BE90B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10717,7 +10716,7 @@
         <xdr:cNvPr id="20" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744BAF80-9BCB-1E4E-80F3-F7B86B3BAC4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{744BAF80-9BCB-1E4E-80F3-F7B86B3BAC4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10736,7 +10735,7 @@
           <xdr:cNvPr id="210" name="Rectangle 209">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CA304B-8B3B-E944-9D78-38BE3BEA1A31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27CA304B-8B3B-E944-9D78-38BE3BEA1A31}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10817,7 +10816,7 @@
           <xdr:cNvPr id="211" name="Straight Connector 210">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4A2D8E-8E0B-834D-8AFF-BEF79B7E050A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A4A2D8E-8E0B-834D-8AFF-BEF79B7E050A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10856,7 +10855,7 @@
           <xdr:cNvPr id="212" name="Straight Connector 211">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DAF0F0-4A12-2C49-A304-752D5D509F48}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07DAF0F0-4A12-2C49-A304-752D5D509F48}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10895,7 +10894,7 @@
           <xdr:cNvPr id="213" name="Straight Connector 212">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A38D7EC-517F-1C48-B782-AECD08FC263C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A38D7EC-517F-1C48-B782-AECD08FC263C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10931,7 +10930,7 @@
           <xdr:cNvPr id="214" name="Straight Connector 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7E983D-9B03-E64F-BB29-31DBA8CECBBD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B7E983D-9B03-E64F-BB29-31DBA8CECBBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10967,7 +10966,7 @@
           <xdr:cNvPr id="215" name="Straight Connector 214">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684B53E8-E5C7-034B-A3B9-A25C0B837593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{684B53E8-E5C7-034B-A3B9-A25C0B837593}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11021,7 +11020,7 @@
         <xdr:cNvPr id="38" name="Group 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67ABB1B-1D20-1A45-9C71-79A0601B1A15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B67ABB1B-1D20-1A45-9C71-79A0601B1A15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11040,7 +11039,7 @@
           <xdr:cNvPr id="222" name="Rectangle 221">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28404F5D-9D7E-7E4C-9654-2D79BEEE668D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28404F5D-9D7E-7E4C-9654-2D79BEEE668D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11121,7 +11120,7 @@
           <xdr:cNvPr id="223" name="Straight Connector 222">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94821680-BD00-FC41-8F40-93BB76408543}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94821680-BD00-FC41-8F40-93BB76408543}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11160,7 +11159,7 @@
           <xdr:cNvPr id="224" name="Straight Connector 223">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEA4AAD-C048-5B43-A328-D6A09D783850}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DEA4AAD-C048-5B43-A328-D6A09D783850}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11196,7 +11195,7 @@
           <xdr:cNvPr id="225" name="Straight Connector 224">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED8F2D0-74B2-BC40-AABF-62B1BDFA1909}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0ED8F2D0-74B2-BC40-AABF-62B1BDFA1909}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11234,7 +11233,7 @@
           <xdr:cNvPr id="226" name="Straight Connector 225">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FB7E18-BFF1-694D-A263-4F78ABFA4315}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3FB7E18-BFF1-694D-A263-4F78ABFA4315}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11272,7 +11271,7 @@
           <xdr:cNvPr id="238" name="Straight Connector 237">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763E777F-F481-FA4E-9DC6-E572205A7163}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{763E777F-F481-FA4E-9DC6-E572205A7163}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11327,7 +11326,7 @@
         <xdr:cNvPr id="42" name="Group 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81BF82F-045A-E94E-8CA2-25D09D699D60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A81BF82F-045A-E94E-8CA2-25D09D699D60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11346,7 +11345,7 @@
           <xdr:cNvPr id="41" name="Group 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8EA454-D56F-954F-AA40-2F0F4DE082B9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C8EA454-D56F-954F-AA40-2F0F4DE082B9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11365,7 +11364,7 @@
             <xdr:cNvPr id="253" name="Rectangle 252">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F867AC-974A-6243-8174-5575E527CE13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23F867AC-974A-6243-8174-5575E527CE13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11446,7 +11445,7 @@
             <xdr:cNvPr id="254" name="Straight Connector 253">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C8D56D-8C4B-2544-B189-25C3918593C7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20C8D56D-8C4B-2544-B189-25C3918593C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11485,7 +11484,7 @@
             <xdr:cNvPr id="255" name="Straight Connector 254">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA1BA6E-C55E-5441-9F15-61D7D9EA3F8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DA1BA6E-C55E-5441-9F15-61D7D9EA3F8F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11521,7 +11520,7 @@
             <xdr:cNvPr id="256" name="Straight Connector 255">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AD1597-0E0E-B947-8921-E30DF242DF7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42AD1597-0E0E-B947-8921-E30DF242DF7C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11559,7 +11558,7 @@
             <xdr:cNvPr id="257" name="Straight Connector 256">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA20E0B7-3C24-9243-A913-CD35E3E5804D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA20E0B7-3C24-9243-A913-CD35E3E5804D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11596,7 +11595,7 @@
           <xdr:cNvPr id="258" name="Straight Connector 257">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB4C7CF-A669-7243-BC9D-DB314DC68769}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AB4C7CF-A669-7243-BC9D-DB314DC68769}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11651,7 +11650,7 @@
         <xdr:cNvPr id="259" name="Group 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A16423-41BF-B941-B4EB-B7EABAAA0BC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75A16423-41BF-B941-B4EB-B7EABAAA0BC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11670,7 +11669,7 @@
           <xdr:cNvPr id="260" name="Group 259">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E768463-B9BB-5241-A64B-97DCF3C21102}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E768463-B9BB-5241-A64B-97DCF3C21102}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11689,7 +11688,7 @@
             <xdr:cNvPr id="273" name="Rectangle 272">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E80A5BC-A18E-5145-96F1-8964D08650F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E80A5BC-A18E-5145-96F1-8964D08650F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11770,7 +11769,7 @@
             <xdr:cNvPr id="274" name="Straight Connector 273">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655CC647-B466-6D4D-B12E-EB101C05C595}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{655CC647-B466-6D4D-B12E-EB101C05C595}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11809,7 +11808,7 @@
             <xdr:cNvPr id="275" name="Straight Connector 274">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23585DC2-6CCB-8A44-A56A-F19E0AA7E666}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23585DC2-6CCB-8A44-A56A-F19E0AA7E666}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11848,7 +11847,7 @@
             <xdr:cNvPr id="276" name="Straight Connector 275">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9055C0-0D5D-0141-91D5-A93DB000FCE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF9055C0-0D5D-0141-91D5-A93DB000FCE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11887,7 +11886,7 @@
             <xdr:cNvPr id="277" name="Straight Connector 276">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C406F8-C953-4542-85AB-9081D24C375C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6C406F8-C953-4542-85AB-9081D24C375C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11924,7 +11923,7 @@
           <xdr:cNvPr id="272" name="Straight Connector 271">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2DE776-0F11-884C-AAF0-F0116920D0C7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE2DE776-0F11-884C-AAF0-F0116920D0C7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11979,7 +11978,7 @@
         <xdr:cNvPr id="301" name="Group 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64AA3A2-D06D-7544-8696-0391BBFC0D24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F64AA3A2-D06D-7544-8696-0391BBFC0D24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11998,7 +11997,7 @@
           <xdr:cNvPr id="302" name="Rectangle 301">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E99F066-9933-8942-94BD-A70E8157BF65}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E99F066-9933-8942-94BD-A70E8157BF65}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12079,7 +12078,7 @@
           <xdr:cNvPr id="303" name="Straight Connector 302">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F3B77E-1967-7641-AE4F-4CAE037639E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F3B77E-1967-7641-AE4F-4CAE037639E3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12118,7 +12117,7 @@
           <xdr:cNvPr id="304" name="Straight Connector 303">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD92F624-F45D-DC4F-BDEE-DDBFD661D13D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD92F624-F45D-DC4F-BDEE-DDBFD661D13D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12157,7 +12156,7 @@
           <xdr:cNvPr id="305" name="Straight Connector 304">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1CC815-6A4E-CB46-8EDF-B47418C6DCA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD1CC815-6A4E-CB46-8EDF-B47418C6DCA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12193,7 +12192,7 @@
           <xdr:cNvPr id="306" name="Straight Connector 305">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125E0DA8-149A-334E-8DA9-8B9EE040BE27}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{125E0DA8-149A-334E-8DA9-8B9EE040BE27}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12229,7 +12228,7 @@
           <xdr:cNvPr id="307" name="Straight Connector 306">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2516DC-B854-564F-81E8-C39F51C4B8C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F2516DC-B854-564F-81E8-C39F51C4B8C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12283,7 +12282,7 @@
         <xdr:cNvPr id="308" name="Group 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C966EBB3-29D3-F54B-AFDD-AAB648126650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C966EBB3-29D3-F54B-AFDD-AAB648126650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12302,7 +12301,7 @@
           <xdr:cNvPr id="309" name="Rectangle 308">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6300A329-3486-AC40-9787-19AD7EB619FB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6300A329-3486-AC40-9787-19AD7EB619FB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12383,7 +12382,7 @@
           <xdr:cNvPr id="310" name="Straight Connector 309">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FFF618-8E27-B144-A7B6-0E74EFD5E4B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31FFF618-8E27-B144-A7B6-0E74EFD5E4B3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12422,7 +12421,7 @@
           <xdr:cNvPr id="311" name="Straight Connector 310">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3240BE1E-A478-644E-B4B6-0588E1A3A137}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3240BE1E-A478-644E-B4B6-0588E1A3A137}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12458,7 +12457,7 @@
           <xdr:cNvPr id="312" name="Straight Connector 311">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635EC95C-9722-474D-A311-72F1A95B6B63}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{635EC95C-9722-474D-A311-72F1A95B6B63}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12496,7 +12495,7 @@
           <xdr:cNvPr id="313" name="Straight Connector 312">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E43F40A-3FC6-1243-8BC7-89264AB4EB13}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E43F40A-3FC6-1243-8BC7-89264AB4EB13}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12534,7 +12533,7 @@
           <xdr:cNvPr id="325" name="Straight Connector 324">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE68DD8-56EB-CF47-9D3B-8A29D4BF320F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EE68DD8-56EB-CF47-9D3B-8A29D4BF320F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12589,7 +12588,7 @@
         <xdr:cNvPr id="326" name="Group 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E3E967-6B3B-1A43-A6D8-82C4EE2479C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1E3E967-6B3B-1A43-A6D8-82C4EE2479C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12608,7 +12607,7 @@
           <xdr:cNvPr id="327" name="Group 326">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10ED32C8-67E0-DC46-B44A-73C1879F437B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10ED32C8-67E0-DC46-B44A-73C1879F437B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12627,7 +12626,7 @@
             <xdr:cNvPr id="333" name="Rectangle 332">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A73791D-03A5-5640-9787-700318034E8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A73791D-03A5-5640-9787-700318034E8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12708,7 +12707,7 @@
             <xdr:cNvPr id="334" name="Straight Connector 333">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F59DC5-77A7-5549-B023-FCD7C86B82B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2F59DC5-77A7-5549-B023-FCD7C86B82B7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12747,7 +12746,7 @@
             <xdr:cNvPr id="335" name="Straight Connector 334">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79C7EF9-0D47-B94D-ABC8-F200D6AD4DFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79C7EF9-0D47-B94D-ABC8-F200D6AD4DFD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12783,7 +12782,7 @@
             <xdr:cNvPr id="336" name="Straight Connector 335">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8480A9E7-B569-9349-B98E-6B8955E39809}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8480A9E7-B569-9349-B98E-6B8955E39809}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12821,7 +12820,7 @@
             <xdr:cNvPr id="337" name="Straight Connector 336">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F63D0C-6775-4840-8CC0-256A302B96F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F63D0C-6775-4840-8CC0-256A302B96F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12858,7 +12857,7 @@
           <xdr:cNvPr id="328" name="Straight Connector 327">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3912857C-76E0-2A4B-A646-065FDB4E0B20}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3912857C-76E0-2A4B-A646-065FDB4E0B20}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12913,7 +12912,7 @@
         <xdr:cNvPr id="338" name="Group 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB6705-DF50-CC44-B54E-73344A05E312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBAB6705-DF50-CC44-B54E-73344A05E312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12932,7 +12931,7 @@
           <xdr:cNvPr id="339" name="Group 338">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C8A14B-5AE5-0540-97C6-0F8CE288EC10}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C8A14B-5AE5-0540-97C6-0F8CE288EC10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12951,7 +12950,7 @@
             <xdr:cNvPr id="341" name="Rectangle 340">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D00EF8-CC71-1447-9AFA-B4EF97823627}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86D00EF8-CC71-1447-9AFA-B4EF97823627}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13032,7 +13031,7 @@
             <xdr:cNvPr id="342" name="Straight Connector 341">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C29519-7429-504C-8E23-4246C778ED19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8C29519-7429-504C-8E23-4246C778ED19}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13071,7 +13070,7 @@
             <xdr:cNvPr id="356" name="Straight Connector 355">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502DBF00-5336-B749-845F-01A635FC1ED6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{502DBF00-5336-B749-845F-01A635FC1ED6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13107,7 +13106,7 @@
             <xdr:cNvPr id="357" name="Straight Connector 356">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E45AE5-281F-3645-9EC9-33693AD9E613}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55E45AE5-281F-3645-9EC9-33693AD9E613}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13145,7 +13144,7 @@
             <xdr:cNvPr id="358" name="Straight Connector 357">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769E8EE3-C33B-0D41-9253-EFAC9F16393D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{769E8EE3-C33B-0D41-9253-EFAC9F16393D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13182,7 +13181,7 @@
           <xdr:cNvPr id="340" name="Straight Connector 339">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC2FA21-1C9F-644F-92EB-535B327448D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFC2FA21-1C9F-644F-92EB-535B327448D2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13237,7 +13236,7 @@
         <xdr:cNvPr id="374" name="Group 373">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D270511-95B3-724B-AFE3-1A1E2D5BFB56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D270511-95B3-724B-AFE3-1A1E2D5BFB56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13256,7 +13255,7 @@
           <xdr:cNvPr id="375" name="Group 374">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B60A4F9-DD49-FF44-9FF6-CF510EDC3C56}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B60A4F9-DD49-FF44-9FF6-CF510EDC3C56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13275,7 +13274,7 @@
             <xdr:cNvPr id="377" name="Rectangle 376">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865FB15E-7F19-7544-B117-973A0DE5C285}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{865FB15E-7F19-7544-B117-973A0DE5C285}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13356,7 +13355,7 @@
             <xdr:cNvPr id="378" name="Straight Connector 377">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18546CD0-1459-5947-BA94-8AC765D37385}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18546CD0-1459-5947-BA94-8AC765D37385}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13395,7 +13394,7 @@
             <xdr:cNvPr id="379" name="Straight Connector 378">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E46878-F442-584D-9D48-ED1B26A5D90D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E46878-F442-584D-9D48-ED1B26A5D90D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13431,7 +13430,7 @@
             <xdr:cNvPr id="380" name="Straight Connector 379">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312C9861-C8DC-0040-B0DC-88649BD3706F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{312C9861-C8DC-0040-B0DC-88649BD3706F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13469,7 +13468,7 @@
             <xdr:cNvPr id="381" name="Straight Connector 380">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E85C812-2AF1-694F-AF88-86D30E1EF850}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E85C812-2AF1-694F-AF88-86D30E1EF850}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13506,7 +13505,7 @@
           <xdr:cNvPr id="376" name="Straight Connector 375">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BF0B55-33AF-C64F-AA8B-79D74BDFF80C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00BF0B55-33AF-C64F-AA8B-79D74BDFF80C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13561,7 +13560,7 @@
         <xdr:cNvPr id="382" name="Group 381">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C892B4-3D15-EF44-B0CC-DE61D68B2677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83C892B4-3D15-EF44-B0CC-DE61D68B2677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13580,7 +13579,7 @@
           <xdr:cNvPr id="383" name="Group 382">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81522291-2515-BA43-AFF4-DFD0C4E1ADE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81522291-2515-BA43-AFF4-DFD0C4E1ADE0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13599,7 +13598,7 @@
             <xdr:cNvPr id="385" name="Rectangle 384">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03B66FB-38B5-8147-BB7A-487D8307AC21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A03B66FB-38B5-8147-BB7A-487D8307AC21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13680,7 +13679,7 @@
             <xdr:cNvPr id="386" name="Straight Connector 385">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF3280A-9469-D144-8522-F8052F4ED166}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CF3280A-9469-D144-8522-F8052F4ED166}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13719,7 +13718,7 @@
             <xdr:cNvPr id="387" name="Straight Connector 386">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1A30A3-3E66-3B44-B05E-D45E0C7C2A60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A1A30A3-3E66-3B44-B05E-D45E0C7C2A60}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13755,7 +13754,7 @@
             <xdr:cNvPr id="388" name="Straight Connector 387">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19BD966-D441-8147-A640-BF0FE0FA81BF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A19BD966-D441-8147-A640-BF0FE0FA81BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13793,7 +13792,7 @@
             <xdr:cNvPr id="389" name="Straight Connector 388">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D292E7-01AE-2740-A258-D304330F1A0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52D292E7-01AE-2740-A258-D304330F1A0E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13830,7 +13829,7 @@
           <xdr:cNvPr id="384" name="Straight Connector 383">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FBA135-DF21-A048-BA91-573442F749B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66FBA135-DF21-A048-BA91-573442F749B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13885,7 +13884,7 @@
         <xdr:cNvPr id="390" name="Group 389">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DFDECD-AEB5-344F-B044-5DD951584E5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7DFDECD-AEB5-344F-B044-5DD951584E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13904,7 +13903,7 @@
           <xdr:cNvPr id="391" name="Group 390">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43768916-944F-CA40-96EF-243893039ACD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43768916-944F-CA40-96EF-243893039ACD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13923,7 +13922,7 @@
             <xdr:cNvPr id="393" name="Rectangle 392">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C89DEAC-0379-844F-A363-B98C0BB6F310}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C89DEAC-0379-844F-A363-B98C0BB6F310}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14004,7 +14003,7 @@
             <xdr:cNvPr id="394" name="Straight Connector 393">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3775FA8-B8C3-4149-A728-7D2F9FE2DDAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3775FA8-B8C3-4149-A728-7D2F9FE2DDAF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14043,7 +14042,7 @@
             <xdr:cNvPr id="395" name="Straight Connector 394">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AA2135-718A-C343-AF34-BA94FDE55EC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AA2135-718A-C343-AF34-BA94FDE55EC0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14079,7 +14078,7 @@
             <xdr:cNvPr id="396" name="Straight Connector 395">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0446EC69-CD20-1441-AA68-4BD250A0895D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0446EC69-CD20-1441-AA68-4BD250A0895D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14117,7 +14116,7 @@
             <xdr:cNvPr id="397" name="Straight Connector 396">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C080E35-5B8C-9046-8869-8744A0D95B07}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C080E35-5B8C-9046-8869-8744A0D95B07}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14154,7 +14153,7 @@
           <xdr:cNvPr id="392" name="Straight Connector 391">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68480BDE-461A-CA4A-831B-726D706E3589}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68480BDE-461A-CA4A-831B-726D706E3589}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14209,7 +14208,7 @@
         <xdr:cNvPr id="398" name="Group 397">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B378469-4DB8-EE4A-BA67-5CC500FA5019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B378469-4DB8-EE4A-BA67-5CC500FA5019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14228,7 +14227,7 @@
           <xdr:cNvPr id="399" name="Group 398">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4174A1-0AB8-614B-AA49-72EAEA5D5D12}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A4174A1-0AB8-614B-AA49-72EAEA5D5D12}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14247,7 +14246,7 @@
             <xdr:cNvPr id="401" name="Rectangle 400">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75136FB4-2A39-9A45-BEBD-3F2C329EB702}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75136FB4-2A39-9A45-BEBD-3F2C329EB702}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14328,7 +14327,7 @@
             <xdr:cNvPr id="402" name="Straight Connector 401">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F9A2E-2887-C848-B81E-9F1E8E3122DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C0F9A2E-2887-C848-B81E-9F1E8E3122DC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14367,7 +14366,7 @@
             <xdr:cNvPr id="403" name="Straight Connector 402">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86F03CB-20A2-2F48-9418-46501819787C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D86F03CB-20A2-2F48-9418-46501819787C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14403,7 +14402,7 @@
             <xdr:cNvPr id="404" name="Straight Connector 403">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD50EF7-430A-F449-A22C-5EF8BB3485A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD50EF7-430A-F449-A22C-5EF8BB3485A8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14441,7 +14440,7 @@
             <xdr:cNvPr id="405" name="Straight Connector 404">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E4FE63-D6C4-DA43-925A-8C745BE1B38D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E4FE63-D6C4-DA43-925A-8C745BE1B38D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14478,7 +14477,7 @@
           <xdr:cNvPr id="400" name="Straight Connector 399">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052C4C55-7B6A-FA49-8A5F-D79C1F4CD30C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{052C4C55-7B6A-FA49-8A5F-D79C1F4CD30C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14533,7 +14532,7 @@
         <xdr:cNvPr id="406" name="Notched Right Arrow 405">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AF11CD-52DC-DE42-B66C-8B024C14F21E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3AF11CD-52DC-DE42-B66C-8B024C14F21E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14593,7 +14592,7 @@
         <xdr:cNvPr id="407" name="TextBox 406">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3905C9B-FD00-E24C-B7B5-12DA505EEB88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3905C9B-FD00-E24C-B7B5-12DA505EEB88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14663,7 +14662,7 @@
         <xdr:cNvPr id="409" name="Straight Connector 408">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB53776-B84E-DC43-BDE5-F9E73CF75518}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAB53776-B84E-DC43-BDE5-F9E73CF75518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14717,7 +14716,7 @@
         <xdr:cNvPr id="58" name="Group 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E166641-8375-4A4A-8A0F-B7B720BF9DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E166641-8375-4A4A-8A0F-B7B720BF9DA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14736,7 +14735,7 @@
           <xdr:cNvPr id="49" name="Group 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BBEB21-7D45-2B43-9053-E8568C47AFBD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BBEB21-7D45-2B43-9053-E8568C47AFBD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14755,7 +14754,7 @@
             <xdr:cNvPr id="408" name="Rectangle 407">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BD65FB-E24C-0549-839D-51AADE982950}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11BD65FB-E24C-0549-839D-51AADE982950}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14836,7 +14835,7 @@
             <xdr:cNvPr id="410" name="Straight Connector 409">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40CC9A3-1849-8748-A547-442DD126FE83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D40CC9A3-1849-8748-A547-442DD126FE83}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14875,7 +14874,7 @@
             <xdr:cNvPr id="411" name="Straight Connector 410">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC292786-6031-8A49-864E-6266933C2187}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC292786-6031-8A49-864E-6266933C2187}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14911,7 +14910,7 @@
             <xdr:cNvPr id="412" name="Straight Connector 411">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEBCE71-EA45-8743-B29B-783DD624D948}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EEBCE71-EA45-8743-B29B-783DD624D948}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14947,7 +14946,7 @@
             <xdr:cNvPr id="413" name="Straight Connector 412">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9E4F05-7774-D248-A0DC-C97C3C8159F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB9E4F05-7774-D248-A0DC-C97C3C8159F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14985,7 +14984,7 @@
             <xdr:cNvPr id="414" name="Straight Connector 413">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B27A3B-56FA-924F-A34D-93E45DA4CA59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7B27A3B-56FA-924F-A34D-93E45DA4CA59}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15023,7 +15022,7 @@
             <xdr:cNvPr id="415" name="Straight Connector 414">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAFA678-8609-7840-A7A7-05AEB23EE70E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DAFA678-8609-7840-A7A7-05AEB23EE70E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15062,7 +15061,7 @@
           <xdr:cNvPr id="416" name="Straight Connector 415">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35B62EB-AED7-6046-8954-7DC2F2907615}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A35B62EB-AED7-6046-8954-7DC2F2907615}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15117,7 +15116,7 @@
         <xdr:cNvPr id="417" name="Group 416">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D745CF39-73EB-B642-9ED9-C4603AA2C8BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D745CF39-73EB-B642-9ED9-C4603AA2C8BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15136,7 +15135,7 @@
           <xdr:cNvPr id="418" name="Group 417">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C517B935-E5E2-E246-BE97-3F2F37E92F1A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C517B935-E5E2-E246-BE97-3F2F37E92F1A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15155,7 +15154,7 @@
             <xdr:cNvPr id="420" name="Rectangle 419">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3133DB-6CF8-5343-ACB7-971CDF430490}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD3133DB-6CF8-5343-ACB7-971CDF430490}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15236,7 +15235,7 @@
             <xdr:cNvPr id="421" name="Straight Connector 420">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3865E1FE-6D74-7548-AEAA-32918E886DF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3865E1FE-6D74-7548-AEAA-32918E886DF5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15275,7 +15274,7 @@
             <xdr:cNvPr id="422" name="Straight Connector 421">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE5EA49-BF65-2B4D-A310-1CC826E80A6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9BE5EA49-BF65-2B4D-A310-1CC826E80A6B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15311,7 +15310,7 @@
             <xdr:cNvPr id="423" name="Straight Connector 422">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDA9545-476C-FA4D-8310-F285BB626B58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BDA9545-476C-FA4D-8310-F285BB626B58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15347,7 +15346,7 @@
             <xdr:cNvPr id="424" name="Straight Connector 423">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F209AE73-A557-344A-B6F4-5971E249B960}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F209AE73-A557-344A-B6F4-5971E249B960}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15385,7 +15384,7 @@
             <xdr:cNvPr id="425" name="Straight Connector 424">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4E2231-C8F7-F146-BC67-2B417EE92B8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E4E2231-C8F7-F146-BC67-2B417EE92B8B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15423,7 +15422,7 @@
             <xdr:cNvPr id="426" name="Straight Connector 425">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A544341-C443-D743-A2D7-535EC2FFED7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A544341-C443-D743-A2D7-535EC2FFED7B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15462,7 +15461,7 @@
           <xdr:cNvPr id="419" name="Straight Connector 418">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66E9CD8-75D5-7641-AE0C-EA4774EC534F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C66E9CD8-75D5-7641-AE0C-EA4774EC534F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15517,7 +15516,7 @@
         <xdr:cNvPr id="427" name="Group 426">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8CC89D-9991-BE40-99F7-466F1CA99B7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C8CC89D-9991-BE40-99F7-466F1CA99B7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15536,7 +15535,7 @@
           <xdr:cNvPr id="428" name="Group 427">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49E7FE7-2B72-2E47-8830-AA6D0E5C224D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F49E7FE7-2B72-2E47-8830-AA6D0E5C224D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15555,7 +15554,7 @@
             <xdr:cNvPr id="430" name="Rectangle 429">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27652347-5166-964B-BD54-2E1F2C5EE922}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27652347-5166-964B-BD54-2E1F2C5EE922}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15636,7 +15635,7 @@
             <xdr:cNvPr id="431" name="Straight Connector 430">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C6482C-3AEA-474E-BB01-1708F8F5DF4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5C6482C-3AEA-474E-BB01-1708F8F5DF4B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15675,7 +15674,7 @@
             <xdr:cNvPr id="432" name="Straight Connector 431">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777EB22B-8451-AA4A-8E7B-1B9FBF68341B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{777EB22B-8451-AA4A-8E7B-1B9FBF68341B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15711,7 +15710,7 @@
             <xdr:cNvPr id="433" name="Straight Connector 432">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188C9C01-8A2B-FA4E-99D8-7E1230A2DB75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{188C9C01-8A2B-FA4E-99D8-7E1230A2DB75}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15747,7 +15746,7 @@
             <xdr:cNvPr id="434" name="Straight Connector 433">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADC6250-E436-614B-801D-11CD3DC7D858}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1ADC6250-E436-614B-801D-11CD3DC7D858}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15785,7 +15784,7 @@
             <xdr:cNvPr id="435" name="Straight Connector 434">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3AA4E0-4EDE-A84E-9C9B-E6145E24F54D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC3AA4E0-4EDE-A84E-9C9B-E6145E24F54D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15823,7 +15822,7 @@
             <xdr:cNvPr id="436" name="Straight Connector 435">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8C2FBA-A7D8-B641-844A-F1FDF58B22E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A8C2FBA-A7D8-B641-844A-F1FDF58B22E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15862,7 +15861,7 @@
           <xdr:cNvPr id="429" name="Straight Connector 428">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147D4ABB-A1DF-BE41-B036-CF712257D5CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{147D4ABB-A1DF-BE41-B036-CF712257D5CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15917,7 +15916,7 @@
         <xdr:cNvPr id="437" name="Notched Right Arrow 436">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD1BDCB-0BA4-C246-9B06-A9174AF703D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FD1BDCB-0BA4-C246-9B06-A9174AF703D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15977,7 +15976,7 @@
         <xdr:cNvPr id="438" name="TextBox 437">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE2A380-C1E7-5B45-B384-DB0CA88C9777}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CE2A380-C1E7-5B45-B384-DB0CA88C9777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16047,7 +16046,7 @@
         <xdr:cNvPr id="439" name="Notched Right Arrow 438">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC426BFD-45D6-FB48-B392-C85D096F2E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC426BFD-45D6-FB48-B392-C85D096F2E7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16107,7 +16106,7 @@
         <xdr:cNvPr id="440" name="TextBox 439">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B0C7E2-C003-2043-AAF5-ADB0C64BE5A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B0C7E2-C003-2043-AAF5-ADB0C64BE5A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16177,7 +16176,7 @@
         <xdr:cNvPr id="441" name="Group 440">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7338D937-0B93-1C47-AF71-44C354C34BE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7338D937-0B93-1C47-AF71-44C354C34BE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16196,7 +16195,7 @@
           <xdr:cNvPr id="442" name="Rectangle 441">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5981B9AD-B38E-9042-B931-A96762758DA5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5981B9AD-B38E-9042-B931-A96762758DA5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16277,7 +16276,7 @@
           <xdr:cNvPr id="443" name="Straight Connector 442">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D015A058-7A3B-C04F-BB36-C6739E386294}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D015A058-7A3B-C04F-BB36-C6739E386294}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16316,7 +16315,7 @@
           <xdr:cNvPr id="444" name="Straight Connector 443">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCAA403-930F-1845-9E4F-FFFE7D5080DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFCAA403-930F-1845-9E4F-FFFE7D5080DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16355,7 +16354,7 @@
           <xdr:cNvPr id="445" name="Straight Connector 444">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F0C46B-FC9F-5B47-8645-BCFE622E1C70}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76F0C46B-FC9F-5B47-8645-BCFE622E1C70}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16391,7 +16390,7 @@
           <xdr:cNvPr id="446" name="Straight Connector 445">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93BCF54-D0E8-4349-B005-1588F4516F74}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B93BCF54-D0E8-4349-B005-1588F4516F74}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16427,7 +16426,7 @@
           <xdr:cNvPr id="447" name="Straight Connector 446">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEF4E33-6F53-5741-9CBC-4F88880023D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CEF4E33-6F53-5741-9CBC-4F88880023D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16481,7 +16480,7 @@
         <xdr:cNvPr id="448" name="Group 447">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BB39F1-C652-6544-B608-924DFD8046D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86BB39F1-C652-6544-B608-924DFD8046D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16500,7 +16499,7 @@
           <xdr:cNvPr id="449" name="Rectangle 448">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831E6C2A-B160-024A-B1DB-5DC68BD22C5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{831E6C2A-B160-024A-B1DB-5DC68BD22C5E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16581,7 +16580,7 @@
           <xdr:cNvPr id="450" name="Straight Connector 449">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A280135-5C11-9F4F-8684-E15C64595F52}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A280135-5C11-9F4F-8684-E15C64595F52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16620,7 +16619,7 @@
           <xdr:cNvPr id="451" name="Straight Connector 450">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF684236-AB0C-EB47-9529-8629D249C9B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF684236-AB0C-EB47-9529-8629D249C9B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16659,7 +16658,7 @@
           <xdr:cNvPr id="452" name="Straight Connector 451">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA5DAEF-4BD8-9D46-8752-5B399E30FB6C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCA5DAEF-4BD8-9D46-8752-5B399E30FB6C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16695,7 +16694,7 @@
           <xdr:cNvPr id="453" name="Straight Connector 452">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E032C35-24D0-6745-8447-C0C54506DCEB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E032C35-24D0-6745-8447-C0C54506DCEB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16731,7 +16730,7 @@
           <xdr:cNvPr id="454" name="Straight Connector 453">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BCEB1B-1AB5-4743-90B4-8DDACB6ED9A0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54BCEB1B-1AB5-4743-90B4-8DDACB6ED9A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16785,7 +16784,7 @@
         <xdr:cNvPr id="455" name="Group 454">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4669CB40-E50D-8547-9CD6-2504CC38B074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4669CB40-E50D-8547-9CD6-2504CC38B074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16804,7 +16803,7 @@
           <xdr:cNvPr id="456" name="Rectangle 455">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAC1160-36E0-4141-892D-3EC313791CA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDAC1160-36E0-4141-892D-3EC313791CA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16885,7 +16884,7 @@
           <xdr:cNvPr id="457" name="Straight Connector 456">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7D9735-D46C-E142-9425-0D54197325B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7D9735-D46C-E142-9425-0D54197325B5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16924,7 +16923,7 @@
           <xdr:cNvPr id="458" name="Straight Connector 457">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72E1E62-0382-FC43-9A6A-DE347F28FD97}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B72E1E62-0382-FC43-9A6A-DE347F28FD97}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16963,7 +16962,7 @@
           <xdr:cNvPr id="459" name="Straight Connector 458">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2218B1-A226-5C44-B546-66BCC0DF121C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E2218B1-A226-5C44-B546-66BCC0DF121C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16999,7 +16998,7 @@
           <xdr:cNvPr id="460" name="Straight Connector 459">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A68093-CA7A-224D-AB09-D7B84FAD460B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35A68093-CA7A-224D-AB09-D7B84FAD460B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17035,7 +17034,7 @@
           <xdr:cNvPr id="461" name="Straight Connector 460">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C164176-5FBF-EC4E-8428-A6D38BAC99FE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C164176-5FBF-EC4E-8428-A6D38BAC99FE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17089,7 +17088,7 @@
         <xdr:cNvPr id="462" name="Group 461">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF1C411-6941-7745-A3AE-D5F9050A83A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EF1C411-6941-7745-A3AE-D5F9050A83A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17108,7 +17107,7 @@
           <xdr:cNvPr id="463" name="Rectangle 462">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7305B65E-9080-C74B-91E0-BB72BB8C8CBA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7305B65E-9080-C74B-91E0-BB72BB8C8CBA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17189,7 +17188,7 @@
           <xdr:cNvPr id="464" name="Straight Connector 463">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1D4CCB-F7A4-3642-AB2D-02D63B2F072A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF1D4CCB-F7A4-3642-AB2D-02D63B2F072A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17228,7 +17227,7 @@
           <xdr:cNvPr id="465" name="Straight Connector 464">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B2CC10-5C88-AC4E-85FB-BB0F4B520099}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B2CC10-5C88-AC4E-85FB-BB0F4B520099}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17267,7 +17266,7 @@
           <xdr:cNvPr id="466" name="Straight Connector 465">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3E922F-D368-FC4E-9FBD-F356AED35D6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE3E922F-D368-FC4E-9FBD-F356AED35D6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17303,7 +17302,7 @@
           <xdr:cNvPr id="467" name="Straight Connector 466">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387B2239-A2EC-414D-932D-F173DC49F141}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{387B2239-A2EC-414D-932D-F173DC49F141}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17339,7 +17338,7 @@
           <xdr:cNvPr id="468" name="Straight Connector 467">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355A2772-E582-E14E-9FDF-4DD7ED0DBA04}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{355A2772-E582-E14E-9FDF-4DD7ED0DBA04}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17393,7 +17392,7 @@
         <xdr:cNvPr id="469" name="Group 468">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EB0EA9-64BB-D849-B97D-D0D2F2F6BFA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45EB0EA9-64BB-D849-B97D-D0D2F2F6BFA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17412,7 +17411,7 @@
           <xdr:cNvPr id="470" name="Rectangle 469">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5A2851-4BC6-104A-9EB1-FD81B9A5BECE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB5A2851-4BC6-104A-9EB1-FD81B9A5BECE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17493,7 +17492,7 @@
           <xdr:cNvPr id="471" name="Straight Connector 470">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51925EC-7849-1544-BA54-10E52F0F8711}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E51925EC-7849-1544-BA54-10E52F0F8711}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17532,7 +17531,7 @@
           <xdr:cNvPr id="472" name="Straight Connector 471">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74952A31-190D-2249-B830-E265A3757431}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74952A31-190D-2249-B830-E265A3757431}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17571,7 +17570,7 @@
           <xdr:cNvPr id="473" name="Straight Connector 472">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69249F46-A046-BF42-BACF-3AB8E0277E06}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69249F46-A046-BF42-BACF-3AB8E0277E06}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17607,7 +17606,7 @@
           <xdr:cNvPr id="474" name="Straight Connector 473">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6237F3E-AF4A-554D-A7CF-F31E96F8EB3E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6237F3E-AF4A-554D-A7CF-F31E96F8EB3E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17643,7 +17642,7 @@
           <xdr:cNvPr id="475" name="Straight Connector 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B58878-CF11-A643-8636-CEB35BA57AC8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5B58878-CF11-A643-8636-CEB35BA57AC8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17697,7 +17696,7 @@
         <xdr:cNvPr id="476" name="Group 475">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452E10B8-0462-4842-9BD6-67031E250936}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{452E10B8-0462-4842-9BD6-67031E250936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17716,7 +17715,7 @@
           <xdr:cNvPr id="477" name="Rectangle 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503ECB9E-7986-954B-9F1D-0CEA0E286649}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{503ECB9E-7986-954B-9F1D-0CEA0E286649}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17797,7 +17796,7 @@
           <xdr:cNvPr id="478" name="Straight Connector 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6306ACE-12D5-7E42-979E-DDD3BFBD6692}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6306ACE-12D5-7E42-979E-DDD3BFBD6692}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17836,7 +17835,7 @@
           <xdr:cNvPr id="479" name="Straight Connector 478">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5A0E3A-C2A2-6146-835B-46E2C9651C6D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D5A0E3A-C2A2-6146-835B-46E2C9651C6D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17875,7 +17874,7 @@
           <xdr:cNvPr id="480" name="Straight Connector 479">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F967C20E-C303-8D46-B8D8-EE36BB5DD353}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F967C20E-C303-8D46-B8D8-EE36BB5DD353}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17911,7 +17910,7 @@
           <xdr:cNvPr id="481" name="Straight Connector 480">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8AA244-41FF-554B-B223-9135318C3696}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF8AA244-41FF-554B-B223-9135318C3696}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17947,7 +17946,7 @@
           <xdr:cNvPr id="482" name="Straight Connector 481">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD309EC3-BB26-C049-8696-CAB5A84D2DB7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD309EC3-BB26-C049-8696-CAB5A84D2DB7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18001,7 +18000,7 @@
         <xdr:cNvPr id="483" name="Group 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1223CA-6F47-AB47-AA01-76BE27EE932A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F1223CA-6F47-AB47-AA01-76BE27EE932A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18020,7 +18019,7 @@
           <xdr:cNvPr id="484" name="Group 483">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7B92E8-15BE-8640-8A3C-70F801B5E877}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA7B92E8-15BE-8640-8A3C-70F801B5E877}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18039,7 +18038,7 @@
             <xdr:cNvPr id="486" name="Rectangle 485">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBB2D29-D21D-BD42-B343-8A5893DF422E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FBB2D29-D21D-BD42-B343-8A5893DF422E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18120,7 +18119,7 @@
             <xdr:cNvPr id="487" name="Straight Connector 486">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E29B1E-758A-674D-B899-035C3A2512A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67E29B1E-758A-674D-B899-035C3A2512A8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18159,7 +18158,7 @@
             <xdr:cNvPr id="488" name="Straight Connector 487">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B79500-75D6-AA49-BDDC-9C17338A16F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2B79500-75D6-AA49-BDDC-9C17338A16F7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18195,7 +18194,7 @@
             <xdr:cNvPr id="489" name="Straight Connector 488">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EDE331-A435-DF46-9FCB-6B9EA644FB34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12EDE331-A435-DF46-9FCB-6B9EA644FB34}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18233,7 +18232,7 @@
             <xdr:cNvPr id="490" name="Straight Connector 489">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD62397-E594-CA44-8F87-B8D3EE728BAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BD62397-E594-CA44-8F87-B8D3EE728BAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18270,7 +18269,7 @@
           <xdr:cNvPr id="485" name="Straight Connector 484">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8530F1A1-D759-EE46-8EFF-333EEF172D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8530F1A1-D759-EE46-8EFF-333EEF172D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18325,7 +18324,7 @@
         <xdr:cNvPr id="491" name="Group 490">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A69CBC9-B1B3-5B4B-BE55-1563A322A888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A69CBC9-B1B3-5B4B-BE55-1563A322A888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18344,7 +18343,7 @@
           <xdr:cNvPr id="492" name="Group 491">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46024FC-DE82-9246-ADC9-6CF3855633B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D46024FC-DE82-9246-ADC9-6CF3855633B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18363,7 +18362,7 @@
             <xdr:cNvPr id="494" name="Rectangle 493">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DE32BE-1695-E441-80EE-B172BD5371CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11DE32BE-1695-E441-80EE-B172BD5371CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18444,7 +18443,7 @@
             <xdr:cNvPr id="495" name="Straight Connector 494">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4C1CF0-AC24-B14E-A39A-E34D1CA1E1EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE4C1CF0-AC24-B14E-A39A-E34D1CA1E1EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18483,7 +18482,7 @@
             <xdr:cNvPr id="496" name="Straight Connector 495">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6E9125-8F4B-6747-A1E3-3E095822C469}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB6E9125-8F4B-6747-A1E3-3E095822C469}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18522,7 +18521,7 @@
             <xdr:cNvPr id="497" name="Straight Connector 496">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D6C056-47A8-1E48-A225-9FC6D813C4E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2D6C056-47A8-1E48-A225-9FC6D813C4E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18561,7 +18560,7 @@
             <xdr:cNvPr id="498" name="Straight Connector 497">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B71521E-A7C0-4049-AE4E-74893F8E791F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B71521E-A7C0-4049-AE4E-74893F8E791F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18598,7 +18597,7 @@
           <xdr:cNvPr id="493" name="Straight Connector 492">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F7657C-0D12-944B-844C-9C78F506BC81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89F7657C-0D12-944B-844C-9C78F506BC81}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18653,7 +18652,7 @@
         <xdr:cNvPr id="499" name="TextBox 498">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F935B8-5B69-4E4E-8901-5753D886D7B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26F935B8-5B69-4E4E-8901-5753D886D7B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18724,7 +18723,7 @@
         <xdr:cNvPr id="500" name="TextBox 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D44FE4-5874-8747-9CA4-A3DADEBF2B8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D44FE4-5874-8747-9CA4-A3DADEBF2B8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18795,7 +18794,7 @@
         <xdr:cNvPr id="501" name="TextBox 500">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD8B8B7-9FF9-0244-AE8F-6BAED4516033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CD8B8B7-9FF9-0244-AE8F-6BAED4516033}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18866,7 +18865,7 @@
         <xdr:cNvPr id="502" name="TextBox 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0340B61-BA69-9840-A286-A1B00F4D107E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0340B61-BA69-9840-A286-A1B00F4D107E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18937,7 +18936,7 @@
         <xdr:cNvPr id="503" name="TextBox 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9530B94D-968E-904D-B052-510424933CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9530B94D-968E-904D-B052-510424933CB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19008,7 +19007,7 @@
         <xdr:cNvPr id="59" name="Group 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA14FDC-1A65-0249-96F8-4D04611257F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCA14FDC-1A65-0249-96F8-4D04611257F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19027,7 +19026,7 @@
           <xdr:cNvPr id="504" name="Rectangle 503">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB3C22E-904C-7345-8E05-9CABB735FCE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2FB3C22E-904C-7345-8E05-9CABB735FCE0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19108,7 +19107,7 @@
           <xdr:cNvPr id="505" name="Straight Connector 504">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AD2D06-C11C-4B4F-967A-39B934EC2B83}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5AD2D06-C11C-4B4F-967A-39B934EC2B83}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19147,7 +19146,7 @@
           <xdr:cNvPr id="506" name="Straight Connector 505">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323C46DB-DD9D-A244-BB35-0595B2E882FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{323C46DB-DD9D-A244-BB35-0595B2E882FF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19186,7 +19185,7 @@
           <xdr:cNvPr id="507" name="Straight Connector 506">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E00123-79F0-2040-B8DF-6DBFF8A4A722}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59E00123-79F0-2040-B8DF-6DBFF8A4A722}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19222,7 +19221,7 @@
           <xdr:cNvPr id="508" name="Straight Connector 507">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F042ED-F69F-754F-91B2-EFBAEC9E0F91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7F042ED-F69F-754F-91B2-EFBAEC9E0F91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19258,7 +19257,7 @@
           <xdr:cNvPr id="509" name="Straight Connector 508">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B60CF3-E242-4343-ACC2-588FF4B3DFEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7B60CF3-E242-4343-ACC2-588FF4B3DFEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19296,7 +19295,7 @@
           <xdr:cNvPr id="510" name="Straight Connector 509">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B11612-1B07-A345-86C7-DB3B44773732}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6B11612-1B07-A345-86C7-DB3B44773732}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19334,7 +19333,7 @@
           <xdr:cNvPr id="511" name="Straight Connector 510">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDCDADB-478D-BB4D-B949-93C945E588C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCDCDADB-478D-BB4D-B949-93C945E588C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19388,7 +19387,7 @@
         <xdr:cNvPr id="512" name="Group 511">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6DF31E-278B-E446-9CDF-F99A2583D516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE6DF31E-278B-E446-9CDF-F99A2583D516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19407,7 +19406,7 @@
           <xdr:cNvPr id="513" name="Rectangle 512">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED4CD7D-E8A2-254E-BDF3-FB57B25FA0DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ED4CD7D-E8A2-254E-BDF3-FB57B25FA0DF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19488,7 +19487,7 @@
           <xdr:cNvPr id="514" name="Straight Connector 513">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F01ACB-1A58-8743-8592-3E5C49EAC62A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1F01ACB-1A58-8743-8592-3E5C49EAC62A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19527,7 +19526,7 @@
           <xdr:cNvPr id="515" name="Straight Connector 514">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBF71AE-0389-324A-BFF8-83B7AAEDD25E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FBF71AE-0389-324A-BFF8-83B7AAEDD25E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19566,7 +19565,7 @@
           <xdr:cNvPr id="516" name="Straight Connector 515">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82608A2A-A961-3643-A88C-FAD20E2F26CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82608A2A-A961-3643-A88C-FAD20E2F26CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19602,7 +19601,7 @@
           <xdr:cNvPr id="517" name="Straight Connector 516">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D10AEF-4969-7E47-9AD4-77E34CA293E5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73D10AEF-4969-7E47-9AD4-77E34CA293E5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19638,7 +19637,7 @@
           <xdr:cNvPr id="518" name="Straight Connector 517">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB78C302-B585-4245-B29A-36DC332EC337}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB78C302-B585-4245-B29A-36DC332EC337}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19676,7 +19675,7 @@
           <xdr:cNvPr id="519" name="Straight Connector 518">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E526ED2-5D58-6446-AB43-EE0889B20406}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E526ED2-5D58-6446-AB43-EE0889B20406}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19714,7 +19713,7 @@
           <xdr:cNvPr id="520" name="Straight Connector 519">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2D2599-E47A-EA47-8817-349C23049810}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA2D2599-E47A-EA47-8817-349C23049810}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19768,7 +19767,7 @@
         <xdr:cNvPr id="521" name="Group 520">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEED9D8-BB77-1148-A237-0A520CE58534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAEED9D8-BB77-1148-A237-0A520CE58534}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19787,7 +19786,7 @@
           <xdr:cNvPr id="522" name="Rectangle 521">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E4E524-B55B-404D-B7AF-096266BFD8CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5E4E524-B55B-404D-B7AF-096266BFD8CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19868,7 +19867,7 @@
           <xdr:cNvPr id="523" name="Straight Connector 522">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676C4436-85CC-2F4D-8751-3CF893334765}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{676C4436-85CC-2F4D-8751-3CF893334765}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19907,7 +19906,7 @@
           <xdr:cNvPr id="524" name="Straight Connector 523">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BBA687-09B0-FB4C-A45E-56192B1DAF94}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66BBA687-09B0-FB4C-A45E-56192B1DAF94}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19946,7 +19945,7 @@
           <xdr:cNvPr id="525" name="Straight Connector 524">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB948611-C28F-6B4F-BB08-227164B3F9D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB948611-C28F-6B4F-BB08-227164B3F9D5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19982,7 +19981,7 @@
           <xdr:cNvPr id="526" name="Straight Connector 525">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A96C6A7-BC36-1947-A19C-4DA0EF0CD27B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A96C6A7-BC36-1947-A19C-4DA0EF0CD27B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20018,7 +20017,7 @@
           <xdr:cNvPr id="527" name="Straight Connector 526">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F00509B-281B-BB40-899E-D98D2F6AFD24}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F00509B-281B-BB40-899E-D98D2F6AFD24}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20056,7 +20055,7 @@
           <xdr:cNvPr id="528" name="Straight Connector 527">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926AF981-8530-DF4B-AB99-4DA30FE6A31E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{926AF981-8530-DF4B-AB99-4DA30FE6A31E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20094,7 +20093,7 @@
           <xdr:cNvPr id="529" name="Straight Connector 528">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88333934-83BF-184B-9D47-BB52D47FE5B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88333934-83BF-184B-9D47-BB52D47FE5B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20148,7 +20147,7 @@
         <xdr:cNvPr id="530" name="Notched Right Arrow 529">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A39A60-3878-3145-B9E0-4FB53142801B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90A39A60-3878-3145-B9E0-4FB53142801B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20208,7 +20207,7 @@
         <xdr:cNvPr id="531" name="TextBox 530">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB667815-81A8-BC4C-A31D-7FA6D2F575A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB667815-81A8-BC4C-A31D-7FA6D2F575A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20278,7 +20277,7 @@
         <xdr:cNvPr id="532" name="Notched Right Arrow 531">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2789F6FB-3D97-9347-A2D5-CD6CBC7BCA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2789F6FB-3D97-9347-A2D5-CD6CBC7BCA32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20338,7 +20337,7 @@
         <xdr:cNvPr id="533" name="TextBox 532">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953CD270-591E-A346-8F6F-D8A9ABDE7D12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{953CD270-591E-A346-8F6F-D8A9ABDE7D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20408,7 +20407,7 @@
         <xdr:cNvPr id="534" name="Group 533">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECF6377-E06F-BC41-912B-9CE6AD8DBD7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AECF6377-E06F-BC41-912B-9CE6AD8DBD7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20427,7 +20426,7 @@
           <xdr:cNvPr id="535" name="Group 534">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F0437F-AFA3-B84C-97E0-5399D1533A6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95F0437F-AFA3-B84C-97E0-5399D1533A6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20446,7 +20445,7 @@
             <xdr:cNvPr id="537" name="Rectangle 536">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2012D4-E70E-1E45-B428-795A0F01E234}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC2012D4-E70E-1E45-B428-795A0F01E234}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20527,7 +20526,7 @@
             <xdr:cNvPr id="538" name="Straight Connector 537">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC883EDF-7124-9947-A687-C9C202E7DFA7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC883EDF-7124-9947-A687-C9C202E7DFA7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20566,7 +20565,7 @@
             <xdr:cNvPr id="539" name="Straight Connector 538">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365531ED-F617-F245-9A54-019AB1D9C45F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{365531ED-F617-F245-9A54-019AB1D9C45F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20605,7 +20604,7 @@
             <xdr:cNvPr id="540" name="Straight Connector 539">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DD2DCF-5F18-0E4C-AAAF-293089AA8A78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99DD2DCF-5F18-0E4C-AAAF-293089AA8A78}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20644,7 +20643,7 @@
             <xdr:cNvPr id="541" name="Straight Connector 540">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FBAACA-B952-9044-AFF3-9BC1E069F0FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84FBAACA-B952-9044-AFF3-9BC1E069F0FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20681,7 +20680,7 @@
           <xdr:cNvPr id="536" name="Straight Connector 535">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7643643-322D-3B4C-ADB5-04709E6FB361}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7643643-322D-3B4C-ADB5-04709E6FB361}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20736,7 +20735,7 @@
         <xdr:cNvPr id="542" name="Group 541">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C391C3A-52E3-DE40-912A-5D92187682D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C391C3A-52E3-DE40-912A-5D92187682D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20755,7 +20754,7 @@
           <xdr:cNvPr id="543" name="Group 542">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D24522F-6C27-8E44-8678-7276CA43AE28}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D24522F-6C27-8E44-8678-7276CA43AE28}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20774,7 +20773,7 @@
             <xdr:cNvPr id="545" name="Rectangle 544">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC34DC3-868A-2546-A09F-F55319817239}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BC34DC3-868A-2546-A09F-F55319817239}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20855,7 +20854,7 @@
             <xdr:cNvPr id="546" name="Straight Connector 545">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B187B1F9-BEBD-804C-B94E-AE25309F2012}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B187B1F9-BEBD-804C-B94E-AE25309F2012}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20894,7 +20893,7 @@
             <xdr:cNvPr id="547" name="Straight Connector 546">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6B862B-5806-A940-BEA3-F36AD182D417}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC6B862B-5806-A940-BEA3-F36AD182D417}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20933,7 +20932,7 @@
             <xdr:cNvPr id="548" name="Straight Connector 547">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45795E90-89F5-094E-B05D-7605439A0AAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45795E90-89F5-094E-B05D-7605439A0AAE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20972,7 +20971,7 @@
             <xdr:cNvPr id="549" name="Straight Connector 548">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CC97E2-56B1-3C44-95D6-5F393C631EAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CC97E2-56B1-3C44-95D6-5F393C631EAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21009,7 +21008,7 @@
           <xdr:cNvPr id="544" name="Straight Connector 543">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79E195C-1106-CA4E-AF6C-F11B0AF74AE3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79E195C-1106-CA4E-AF6C-F11B0AF74AE3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21064,7 +21063,7 @@
         <xdr:cNvPr id="550" name="Group 549">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776FC522-8D3F-E143-91FB-05F36439DF05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{776FC522-8D3F-E143-91FB-05F36439DF05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21083,7 +21082,7 @@
           <xdr:cNvPr id="551" name="Group 550">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC0823E-38ED-3A4E-9AFA-5443F04DE4B2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0AC0823E-38ED-3A4E-9AFA-5443F04DE4B2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21102,7 +21101,7 @@
             <xdr:cNvPr id="553" name="Rectangle 552">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4035B7A-2D45-4B42-B123-48A08CF83F84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4035B7A-2D45-4B42-B123-48A08CF83F84}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21183,7 +21182,7 @@
             <xdr:cNvPr id="554" name="Straight Connector 553">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC29EEAE-8BD6-9D4C-8DAC-F4D337D6EBBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC29EEAE-8BD6-9D4C-8DAC-F4D337D6EBBB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21222,7 +21221,7 @@
             <xdr:cNvPr id="555" name="Straight Connector 554">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604AF84D-DB69-1E4E-A32C-BB90E07DC693}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{604AF84D-DB69-1E4E-A32C-BB90E07DC693}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21261,7 +21260,7 @@
             <xdr:cNvPr id="556" name="Straight Connector 555">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1445CBF5-7670-484D-AAE1-6F086102C464}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1445CBF5-7670-484D-AAE1-6F086102C464}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21300,7 +21299,7 @@
             <xdr:cNvPr id="557" name="Straight Connector 556">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8DB1BB-4A3A-2345-8587-8CA09C4EC5D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF8DB1BB-4A3A-2345-8587-8CA09C4EC5D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21337,7 +21336,7 @@
           <xdr:cNvPr id="552" name="Straight Connector 551">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B99532CD-732D-E54F-88B5-6D6BF9D8D7D3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B99532CD-732D-E54F-88B5-6D6BF9D8D7D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21392,7 +21391,7 @@
         <xdr:cNvPr id="558" name="Group 557">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30F7264-72A0-7343-BBFD-D5A0A255A29F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B30F7264-72A0-7343-BBFD-D5A0A255A29F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21411,7 +21410,7 @@
           <xdr:cNvPr id="559" name="Group 558">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4081BA-1B2E-AF4B-B261-28503F5DD102}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB4081BA-1B2E-AF4B-B261-28503F5DD102}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21430,7 +21429,7 @@
             <xdr:cNvPr id="561" name="Rectangle 560">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F293D8-0CDC-334A-AD59-15CDAF526D0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1F293D8-0CDC-334A-AD59-15CDAF526D0B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21511,7 +21510,7 @@
             <xdr:cNvPr id="562" name="Straight Connector 561">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1A92F2-2F55-0443-9391-769908D128BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A1A92F2-2F55-0443-9391-769908D128BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21550,7 +21549,7 @@
             <xdr:cNvPr id="563" name="Straight Connector 562">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{023D8DAB-BFA5-5841-B09E-5B49BD070005}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{023D8DAB-BFA5-5841-B09E-5B49BD070005}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21589,7 +21588,7 @@
             <xdr:cNvPr id="564" name="Straight Connector 563">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B825B8-AEDB-194D-A5FF-BB231B58A321}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49B825B8-AEDB-194D-A5FF-BB231B58A321}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21628,7 +21627,7 @@
             <xdr:cNvPr id="565" name="Straight Connector 564">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D88B6A-E09C-1444-BC8A-84897497CA08}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39D88B6A-E09C-1444-BC8A-84897497CA08}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21665,7 +21664,7 @@
           <xdr:cNvPr id="560" name="Straight Connector 559">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964B2402-D896-D24F-8464-C3706895801B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{964B2402-D896-D24F-8464-C3706895801B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21720,7 +21719,7 @@
         <xdr:cNvPr id="566" name="Group 565">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31388673-5D70-DE4D-8D18-A7DFF162B606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31388673-5D70-DE4D-8D18-A7DFF162B606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21739,7 +21738,7 @@
           <xdr:cNvPr id="567" name="Group 566">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D49BA8D-C77F-9141-B8C0-FF6F26DEA359}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D49BA8D-C77F-9141-B8C0-FF6F26DEA359}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21758,7 +21757,7 @@
             <xdr:cNvPr id="569" name="Rectangle 568">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C7D3FC-0E47-AB48-AF25-08EF777DC1F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{52C7D3FC-0E47-AB48-AF25-08EF777DC1F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21839,7 +21838,7 @@
             <xdr:cNvPr id="570" name="Straight Connector 569">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7423593A-6C06-AB4A-A175-70A1B392333E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7423593A-6C06-AB4A-A175-70A1B392333E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21878,7 +21877,7 @@
             <xdr:cNvPr id="571" name="Straight Connector 570">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67182863-6F40-8245-9C2B-CDF9963CEDD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67182863-6F40-8245-9C2B-CDF9963CEDD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21917,7 +21916,7 @@
             <xdr:cNvPr id="572" name="Straight Connector 571">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04ECC767-A125-FC41-8CD5-B2F83A033A60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04ECC767-A125-FC41-8CD5-B2F83A033A60}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21956,7 +21955,7 @@
             <xdr:cNvPr id="573" name="Straight Connector 572">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AF6E5B-32E4-AD46-BEC1-E975D002F726}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3AF6E5B-32E4-AD46-BEC1-E975D002F726}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -21993,7 +21992,7 @@
           <xdr:cNvPr id="568" name="Straight Connector 567">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15313319-967C-9A4B-B01D-2B33D4F41EB1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15313319-967C-9A4B-B01D-2B33D4F41EB1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22048,7 +22047,7 @@
         <xdr:cNvPr id="574" name="Group 573">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8214C67-29F2-4844-A17E-1E56E72F3BCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8214C67-29F2-4844-A17E-1E56E72F3BCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22067,7 +22066,7 @@
           <xdr:cNvPr id="575" name="Group 574">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E1FF78-E450-EC40-82D5-114CB00258A2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80E1FF78-E450-EC40-82D5-114CB00258A2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22086,7 +22085,7 @@
             <xdr:cNvPr id="577" name="Rectangle 576">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CE84E8-0309-9B4B-8791-8C978211BC65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42CE84E8-0309-9B4B-8791-8C978211BC65}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22167,7 +22166,7 @@
             <xdr:cNvPr id="578" name="Straight Connector 577">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9345C883-DFFB-6740-AEE3-31C4DBBBAE3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9345C883-DFFB-6740-AEE3-31C4DBBBAE3E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22206,7 +22205,7 @@
             <xdr:cNvPr id="579" name="Straight Connector 578">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DFB0FB-7DF5-7345-B870-FA8F2824C24D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58DFB0FB-7DF5-7345-B870-FA8F2824C24D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22245,7 +22244,7 @@
             <xdr:cNvPr id="580" name="Straight Connector 579">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72EB876-2A06-F745-AF4A-B52B1E9EBC39}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A72EB876-2A06-F745-AF4A-B52B1E9EBC39}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22284,7 +22283,7 @@
             <xdr:cNvPr id="581" name="Straight Connector 580">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFF55E9-B626-C54B-A643-4ED18D83C4F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CFF55E9-B626-C54B-A643-4ED18D83C4F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -22321,7 +22320,7 @@
           <xdr:cNvPr id="576" name="Straight Connector 575">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599E2B74-7110-494F-B1B0-2609A4455389}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{599E2B74-7110-494F-B1B0-2609A4455389}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22376,7 +22375,7 @@
         <xdr:cNvPr id="582" name="Group 581">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E71293-68F5-FD44-B686-B8B432A43DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4E71293-68F5-FD44-B686-B8B432A43DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22395,7 +22394,7 @@
           <xdr:cNvPr id="583" name="Rectangle 582">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7F1B8F-CEF7-7644-B3EE-EFAE36628055}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF7F1B8F-CEF7-7644-B3EE-EFAE36628055}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22476,7 +22475,7 @@
           <xdr:cNvPr id="584" name="Straight Connector 583">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3349166F-75BB-C847-9516-E3C96FAD3ECC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3349166F-75BB-C847-9516-E3C96FAD3ECC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22515,7 +22514,7 @@
           <xdr:cNvPr id="585" name="Straight Connector 584">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5398A606-3905-524E-B120-8C5BDF52E737}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5398A606-3905-524E-B120-8C5BDF52E737}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22551,7 +22550,7 @@
           <xdr:cNvPr id="586" name="Straight Connector 585">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B48F094-95DD-2041-A95B-8BA6E32B3F35}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B48F094-95DD-2041-A95B-8BA6E32B3F35}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22589,7 +22588,7 @@
           <xdr:cNvPr id="587" name="Straight Connector 586">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A007129-A6E8-1D46-9795-8739F6CF34BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A007129-A6E8-1D46-9795-8739F6CF34BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22627,7 +22626,7 @@
           <xdr:cNvPr id="588" name="Straight Connector 587">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC31450-226C-604D-916C-C722C3E43792}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAC31450-226C-604D-916C-C722C3E43792}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22682,7 +22681,7 @@
         <xdr:cNvPr id="589" name="Group 588">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2F78E1-E8A2-6140-8AF3-7E0CDEE2CC93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A2F78E1-E8A2-6140-8AF3-7E0CDEE2CC93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22701,7 +22700,7 @@
           <xdr:cNvPr id="590" name="Rectangle 589">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35819E4F-B62F-B340-A950-4476F314F3D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35819E4F-B62F-B340-A950-4476F314F3D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22782,7 +22781,7 @@
           <xdr:cNvPr id="591" name="Straight Connector 590">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFE7997-7173-8F4B-AFFF-392F235AC36C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AFE7997-7173-8F4B-AFFF-392F235AC36C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22821,7 +22820,7 @@
           <xdr:cNvPr id="592" name="Straight Connector 591">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4B1B75-A49D-844D-9534-09134C5355B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC4B1B75-A49D-844D-9534-09134C5355B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22860,7 +22859,7 @@
           <xdr:cNvPr id="593" name="Straight Connector 592">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C35270-4C43-784F-ABC3-4486CBBB5357}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7C35270-4C43-784F-ABC3-4486CBBB5357}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22896,7 +22895,7 @@
           <xdr:cNvPr id="594" name="Straight Connector 593">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A805676-14BE-0543-9378-91688AA79018}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A805676-14BE-0543-9378-91688AA79018}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22932,7 +22931,7 @@
           <xdr:cNvPr id="595" name="Straight Connector 594">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB295B5C-373E-4B4D-9D0F-B7611DF7C5F3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB295B5C-373E-4B4D-9D0F-B7611DF7C5F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22986,7 +22985,7 @@
         <xdr:cNvPr id="60" name="Group 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3869F25E-EEAD-2446-A1B0-D3C59272C44E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3869F25E-EEAD-2446-A1B0-D3C59272C44E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23005,7 +23004,7 @@
           <xdr:cNvPr id="596" name="Rectangle 595">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DADC7A-0CBE-6F4D-B277-28738AA520A4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3DADC7A-0CBE-6F4D-B277-28738AA520A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23086,7 +23085,7 @@
           <xdr:cNvPr id="597" name="Straight Connector 596">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6442565-6367-F148-A7C9-EB16F7960EF0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6442565-6367-F148-A7C9-EB16F7960EF0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23125,7 +23124,7 @@
           <xdr:cNvPr id="598" name="Straight Connector 597">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C55EFD-4DE9-C54C-97DB-DC5222180BBA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0C55EFD-4DE9-C54C-97DB-DC5222180BBA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23164,7 +23163,7 @@
           <xdr:cNvPr id="599" name="Straight Connector 598">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6B0427-3440-4441-A3F5-6C11BD60CCF0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C6B0427-3440-4441-A3F5-6C11BD60CCF0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23200,7 +23199,7 @@
           <xdr:cNvPr id="600" name="Straight Connector 599">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42291A66-3156-7342-8933-24040020FDEC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42291A66-3156-7342-8933-24040020FDEC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23238,7 +23237,7 @@
           <xdr:cNvPr id="601" name="Straight Connector 600">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7EDF5B-F076-1541-8CA0-CCFB72C01679}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB7EDF5B-F076-1541-8CA0-CCFB72C01679}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23276,7 +23275,7 @@
           <xdr:cNvPr id="602" name="Straight Connector 601">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8606E36F-54AE-4E4F-9D0B-FEAF0DCE3F00}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8606E36F-54AE-4E4F-9D0B-FEAF0DCE3F00}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23314,7 +23313,7 @@
           <xdr:cNvPr id="603" name="Straight Connector 602">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA59DB6D-9EE3-7F44-AB9A-C15270144288}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA59DB6D-9EE3-7F44-AB9A-C15270144288}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23368,7 +23367,7 @@
         <xdr:cNvPr id="604" name="Group 603">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21379DAE-E3D6-A54A-BB41-B97A67249171}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21379DAE-E3D6-A54A-BB41-B97A67249171}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23387,7 +23386,7 @@
           <xdr:cNvPr id="605" name="Rectangle 604">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02167B41-FBBD-D94B-BE2B-4609D5C1C9A6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02167B41-FBBD-D94B-BE2B-4609D5C1C9A6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23468,7 +23467,7 @@
           <xdr:cNvPr id="606" name="Straight Connector 605">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E3384-FD88-9148-9117-1D6207C2F9AA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D66E3384-FD88-9148-9117-1D6207C2F9AA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23507,7 +23506,7 @@
           <xdr:cNvPr id="607" name="Straight Connector 606">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4051FCC3-A7DE-5A4E-A6E6-CE4D28955C53}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4051FCC3-A7DE-5A4E-A6E6-CE4D28955C53}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23546,7 +23545,7 @@
           <xdr:cNvPr id="608" name="Straight Connector 607">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A947A3A4-F895-6B48-8552-150B338255BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A947A3A4-F895-6B48-8552-150B338255BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23582,7 +23581,7 @@
           <xdr:cNvPr id="609" name="Straight Connector 608">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580D85E0-3292-5746-8BB9-93029C4325D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{580D85E0-3292-5746-8BB9-93029C4325D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23620,7 +23619,7 @@
           <xdr:cNvPr id="610" name="Straight Connector 609">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003B5321-0F94-E24A-9D35-6F6562117DA5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{003B5321-0F94-E24A-9D35-6F6562117DA5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23658,7 +23657,7 @@
           <xdr:cNvPr id="611" name="Straight Connector 610">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAE9424-7D0A-2D4C-BE89-507CBA1553E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BAE9424-7D0A-2D4C-BE89-507CBA1553E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23696,7 +23695,7 @@
           <xdr:cNvPr id="612" name="Straight Connector 611">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B44C675-4ED3-864A-ACDA-2414861CE846}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B44C675-4ED3-864A-ACDA-2414861CE846}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23750,7 +23749,7 @@
         <xdr:cNvPr id="613" name="Group 612">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97FFFEA-92BF-1142-B7CC-94BA05A03828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E97FFFEA-92BF-1142-B7CC-94BA05A03828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23769,7 +23768,7 @@
           <xdr:cNvPr id="614" name="Rectangle 613">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BD1A1B-ECA5-E440-B27F-AE4658583398}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07BD1A1B-ECA5-E440-B27F-AE4658583398}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23850,7 +23849,7 @@
           <xdr:cNvPr id="615" name="Straight Connector 614">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A2AB9B-925A-8744-97B4-0B3625A559DE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72A2AB9B-925A-8744-97B4-0B3625A559DE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23889,7 +23888,7 @@
           <xdr:cNvPr id="616" name="Straight Connector 615">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75C5A73-2B07-144A-B2FB-62F33EEEA892}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E75C5A73-2B07-144A-B2FB-62F33EEEA892}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23928,7 +23927,7 @@
           <xdr:cNvPr id="617" name="Straight Connector 616">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6578907-F322-5747-9A47-CB602CCC923D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6578907-F322-5747-9A47-CB602CCC923D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23964,7 +23963,7 @@
           <xdr:cNvPr id="618" name="Straight Connector 617">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488E3CE6-5D24-9245-80F6-853DCA676BC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{488E3CE6-5D24-9245-80F6-853DCA676BC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24002,7 +24001,7 @@
           <xdr:cNvPr id="619" name="Straight Connector 618">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B39213-60B8-A042-8D86-9A692B343A03}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5B39213-60B8-A042-8D86-9A692B343A03}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24040,7 +24039,7 @@
           <xdr:cNvPr id="620" name="Straight Connector 619">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D194824-A2C8-D147-B7A7-5699723F5FD5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D194824-A2C8-D147-B7A7-5699723F5FD5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24078,7 +24077,7 @@
           <xdr:cNvPr id="621" name="Straight Connector 620">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA82AA95-B3E8-E94A-8806-601D409C056D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA82AA95-B3E8-E94A-8806-601D409C056D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24132,7 +24131,7 @@
         <xdr:cNvPr id="622" name="Notched Right Arrow 621">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FAE777-3CB6-6744-ACAC-79FE8E508D8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7FAE777-3CB6-6744-ACAC-79FE8E508D8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24192,7 +24191,7 @@
         <xdr:cNvPr id="623" name="TextBox 622">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7AA3C5-C0FF-CD49-B61B-BDA5C02C8235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E7AA3C5-C0FF-CD49-B61B-BDA5C02C8235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24262,7 +24261,7 @@
         <xdr:cNvPr id="624" name="Notched Right Arrow 623">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18604661-A8D4-C249-9E16-F55C24CB330F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18604661-A8D4-C249-9E16-F55C24CB330F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24322,7 +24321,7 @@
         <xdr:cNvPr id="625" name="TextBox 624">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8973B051-FCFE-C042-955D-34DF158D87D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8973B051-FCFE-C042-955D-34DF158D87D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24392,7 +24391,7 @@
         <xdr:cNvPr id="626" name="Group 625">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50E46E4-BBA7-384A-816A-CB8A7E8C60A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D50E46E4-BBA7-384A-816A-CB8A7E8C60A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24411,7 +24410,7 @@
           <xdr:cNvPr id="627" name="Rectangle 626">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2723662-AF8F-8644-9F9E-F49BB26E3929}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2723662-AF8F-8644-9F9E-F49BB26E3929}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24492,7 +24491,7 @@
           <xdr:cNvPr id="628" name="Straight Connector 627">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0D1063-EC36-2F45-8712-23FB748AF501}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF0D1063-EC36-2F45-8712-23FB748AF501}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24531,7 +24530,7 @@
           <xdr:cNvPr id="629" name="Straight Connector 628">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A2878C-C027-CD47-BA09-9F7E4FD5E23E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26A2878C-C027-CD47-BA09-9F7E4FD5E23E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24567,7 +24566,7 @@
           <xdr:cNvPr id="630" name="Straight Connector 629">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9783C299-F397-7844-9C7F-D3CACFEFD0C5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9783C299-F397-7844-9C7F-D3CACFEFD0C5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24605,7 +24604,7 @@
           <xdr:cNvPr id="631" name="Straight Connector 630">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318B9C83-A709-8044-8C37-4E5CD5D2EB01}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{318B9C83-A709-8044-8C37-4E5CD5D2EB01}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24643,7 +24642,7 @@
           <xdr:cNvPr id="632" name="Straight Connector 631">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE8C096-DEBE-0F4F-95E6-CE37B5A732F3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FBE8C096-DEBE-0F4F-95E6-CE37B5A732F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24698,7 +24697,7 @@
         <xdr:cNvPr id="633" name="Group 632">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2AF390-36C7-1945-B0D2-27C87D2C87E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B2AF390-36C7-1945-B0D2-27C87D2C87E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24717,7 +24716,7 @@
           <xdr:cNvPr id="634" name="Rectangle 633">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93299C80-5034-984E-990D-4EFE83B8E049}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93299C80-5034-984E-990D-4EFE83B8E049}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24798,7 +24797,7 @@
           <xdr:cNvPr id="635" name="Straight Connector 634">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51DEA20-1521-524F-84A7-D95A3F482AE0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51DEA20-1521-524F-84A7-D95A3F482AE0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24837,7 +24836,7 @@
           <xdr:cNvPr id="636" name="Straight Connector 635">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0765436-FC3E-5E4B-AE68-840DCB1A71F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0765436-FC3E-5E4B-AE68-840DCB1A71F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24873,7 +24872,7 @@
           <xdr:cNvPr id="637" name="Straight Connector 636">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FF723A-9A71-9248-A528-FE2778832115}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6FF723A-9A71-9248-A528-FE2778832115}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24911,7 +24910,7 @@
           <xdr:cNvPr id="638" name="Straight Connector 637">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB776EEA-30BD-DF4C-8B4B-044B87B4D4B3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB776EEA-30BD-DF4C-8B4B-044B87B4D4B3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24949,7 +24948,7 @@
           <xdr:cNvPr id="639" name="Straight Connector 638">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BCBEC1-23FD-8F4C-BF22-E4CFAC958BF8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89BCBEC1-23FD-8F4C-BF22-E4CFAC958BF8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25004,7 +25003,7 @@
         <xdr:cNvPr id="640" name="Group 639">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DCC506-EB31-4341-9B2C-305E46DA8711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23DCC506-EB31-4341-9B2C-305E46DA8711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25023,7 +25022,7 @@
           <xdr:cNvPr id="641" name="Rectangle 640">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C6990C-57BD-6743-8AED-3FB0D7660303}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01C6990C-57BD-6743-8AED-3FB0D7660303}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25104,7 +25103,7 @@
           <xdr:cNvPr id="642" name="Straight Connector 641">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDFE460-D5FB-7F47-A004-1F83A5FB58BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FDFE460-D5FB-7F47-A004-1F83A5FB58BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25143,7 +25142,7 @@
           <xdr:cNvPr id="643" name="Straight Connector 642">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3F6C41-FB3B-E24B-B0ED-156CD784B292}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E3F6C41-FB3B-E24B-B0ED-156CD784B292}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25179,7 +25178,7 @@
           <xdr:cNvPr id="644" name="Straight Connector 643">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A29D88-9A76-2A47-9D09-FDE47D9F41F4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87A29D88-9A76-2A47-9D09-FDE47D9F41F4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25217,7 +25216,7 @@
           <xdr:cNvPr id="645" name="Straight Connector 644">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F543190-9D8D-5E46-A04D-B06E8CB3485D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F543190-9D8D-5E46-A04D-B06E8CB3485D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25255,7 +25254,7 @@
           <xdr:cNvPr id="646" name="Straight Connector 645">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA40FE4-A6EC-D84B-AC7F-0102C0173733}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBA40FE4-A6EC-D84B-AC7F-0102C0173733}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25310,7 +25309,7 @@
         <xdr:cNvPr id="647" name="Group 646">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F7B9A9-C810-364B-B0CD-1A5C24B0FCA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9F7B9A9-C810-364B-B0CD-1A5C24B0FCA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25329,7 +25328,7 @@
           <xdr:cNvPr id="648" name="Rectangle 647">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA933AA-4A07-3544-AA3B-3E5681476C12}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CA933AA-4A07-3544-AA3B-3E5681476C12}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25410,7 +25409,7 @@
           <xdr:cNvPr id="649" name="Straight Connector 648">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CA85FC-BF77-C64D-88C4-3A5A75D539E0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37CA85FC-BF77-C64D-88C4-3A5A75D539E0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25449,7 +25448,7 @@
           <xdr:cNvPr id="650" name="Straight Connector 649">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12E1A85-CCF9-9C42-BA4A-7CA2053DFDDD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C12E1A85-CCF9-9C42-BA4A-7CA2053DFDDD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25485,7 +25484,7 @@
           <xdr:cNvPr id="651" name="Straight Connector 650">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8847F294-F528-8444-B556-54D9547B7493}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8847F294-F528-8444-B556-54D9547B7493}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25523,7 +25522,7 @@
           <xdr:cNvPr id="652" name="Straight Connector 651">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5802977-7988-EA4B-91FB-0AAC1F0AD177}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5802977-7988-EA4B-91FB-0AAC1F0AD177}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25561,7 +25560,7 @@
           <xdr:cNvPr id="653" name="Straight Connector 652">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2743983-75DB-7E46-BE4A-9B76700ECA18}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A2743983-75DB-7E46-BE4A-9B76700ECA18}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25616,7 +25615,7 @@
         <xdr:cNvPr id="654" name="Group 653">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2F8036-FE4C-E549-B3DF-B6C5591E5EDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D2F8036-FE4C-E549-B3DF-B6C5591E5EDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25635,7 +25634,7 @@
           <xdr:cNvPr id="655" name="Rectangle 654">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50657C0A-F176-2D48-BF6E-ECDF116FAB34}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50657C0A-F176-2D48-BF6E-ECDF116FAB34}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25716,7 +25715,7 @@
           <xdr:cNvPr id="656" name="Straight Connector 655">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BCF55D-7CE9-7843-8311-C38E52DE41C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7BCF55D-7CE9-7843-8311-C38E52DE41C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25755,7 +25754,7 @@
           <xdr:cNvPr id="657" name="Straight Connector 656">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767C3E73-E290-E04E-84D8-C5FE1082E2FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{767C3E73-E290-E04E-84D8-C5FE1082E2FD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25791,7 +25790,7 @@
           <xdr:cNvPr id="658" name="Straight Connector 657">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0AEF67-77B0-B44E-8373-3D2086204886}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D0AEF67-77B0-B44E-8373-3D2086204886}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25829,7 +25828,7 @@
           <xdr:cNvPr id="659" name="Straight Connector 658">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8A8FB7-9090-D247-A2B3-E2608FDF5F8D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E8A8FB7-9090-D247-A2B3-E2608FDF5F8D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25867,7 +25866,7 @@
           <xdr:cNvPr id="660" name="Straight Connector 659">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E47511B-0992-3042-9A6F-8B8F7F142519}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E47511B-0992-3042-9A6F-8B8F7F142519}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25922,7 +25921,7 @@
         <xdr:cNvPr id="661" name="Group 660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BEAB8A-61E6-EF43-81F1-EB9F185A8A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42BEAB8A-61E6-EF43-81F1-EB9F185A8A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25941,7 +25940,7 @@
           <xdr:cNvPr id="662" name="Rectangle 661">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8738B58F-B1A6-854F-B802-72AF6C18579B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8738B58F-B1A6-854F-B802-72AF6C18579B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26022,7 +26021,7 @@
           <xdr:cNvPr id="663" name="Straight Connector 662">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C08CE2-0559-CD4D-BC16-D4CA86930E10}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39C08CE2-0559-CD4D-BC16-D4CA86930E10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26061,7 +26060,7 @@
           <xdr:cNvPr id="664" name="Straight Connector 663">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745FF92F-7587-FD4F-8439-DA3138D1267E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{745FF92F-7587-FD4F-8439-DA3138D1267E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26097,7 +26096,7 @@
           <xdr:cNvPr id="665" name="Straight Connector 664">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B26489-5810-124D-9CAB-C2E4AC50180D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46B26489-5810-124D-9CAB-C2E4AC50180D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26135,7 +26134,7 @@
           <xdr:cNvPr id="666" name="Straight Connector 665">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83917057-F2EF-2E4D-88C0-4B8D349D486A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83917057-F2EF-2E4D-88C0-4B8D349D486A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26173,7 +26172,7 @@
           <xdr:cNvPr id="667" name="Straight Connector 666">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1537C3CF-C922-FC46-9D36-F6CC5DA53896}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1537C3CF-C922-FC46-9D36-F6CC5DA53896}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26228,7 +26227,7 @@
         <xdr:cNvPr id="668" name="Group 667">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DB76ED-D9D6-2648-BA86-21996B3188E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08DB76ED-D9D6-2648-BA86-21996B3188E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26247,7 +26246,7 @@
           <xdr:cNvPr id="669" name="Group 668">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FD52E8-3206-A448-9433-EABE93E94299}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5FD52E8-3206-A448-9433-EABE93E94299}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26266,7 +26265,7 @@
             <xdr:cNvPr id="671" name="Rectangle 670">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E715FE-1F47-AF41-8463-4F98F35E0502}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E715FE-1F47-AF41-8463-4F98F35E0502}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26347,7 +26346,7 @@
             <xdr:cNvPr id="672" name="Straight Connector 671">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CE87D6-A0D2-6B4C-AA9E-FDD2820A336E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31CE87D6-A0D2-6B4C-AA9E-FDD2820A336E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26386,7 +26385,7 @@
             <xdr:cNvPr id="673" name="Straight Connector 672">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747595B3-F294-4144-846D-230730920A03}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{747595B3-F294-4144-846D-230730920A03}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26425,7 +26424,7 @@
             <xdr:cNvPr id="674" name="Straight Connector 673">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF63ED0-4F87-C14B-84E6-E3D897793012}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6AF63ED0-4F87-C14B-84E6-E3D897793012}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26464,7 +26463,7 @@
             <xdr:cNvPr id="675" name="Straight Connector 674">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAEF54C-151B-7443-A3A2-AF360396D2A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FAEF54C-151B-7443-A3A2-AF360396D2A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26501,7 +26500,7 @@
           <xdr:cNvPr id="670" name="Straight Connector 669">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147D7DA1-1926-884A-A5EC-87B6B5C28D28}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{147D7DA1-1926-884A-A5EC-87B6B5C28D28}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26556,7 +26555,7 @@
         <xdr:cNvPr id="676" name="Group 675">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A481941-6EB4-D640-9B20-480777A5B859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A481941-6EB4-D640-9B20-480777A5B859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26575,7 +26574,7 @@
           <xdr:cNvPr id="677" name="Group 676">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9C6E94-4BA5-8D47-AB27-09362E799C22}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB9C6E94-4BA5-8D47-AB27-09362E799C22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26594,7 +26593,7 @@
             <xdr:cNvPr id="679" name="Rectangle 678">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F57352B-89FB-9445-8726-C118F5E851A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F57352B-89FB-9445-8726-C118F5E851A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26675,7 +26674,7 @@
             <xdr:cNvPr id="680" name="Straight Connector 679">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29587D04-0B97-A44A-93BD-46EC7F3AE3B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29587D04-0B97-A44A-93BD-46EC7F3AE3B9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26714,7 +26713,7 @@
             <xdr:cNvPr id="681" name="Straight Connector 680">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EE0ACB-EB6D-7A43-A5FF-1181C1499EAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75EE0ACB-EB6D-7A43-A5FF-1181C1499EAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26750,7 +26749,7 @@
             <xdr:cNvPr id="682" name="Straight Connector 681">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6678097A-27F0-344C-9009-04039A458A0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6678097A-27F0-344C-9009-04039A458A0E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26788,7 +26787,7 @@
             <xdr:cNvPr id="683" name="Straight Connector 682">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A66222-E7FC-9D48-9681-144AF077753F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19A66222-E7FC-9D48-9681-144AF077753F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -26825,7 +26824,7 @@
           <xdr:cNvPr id="678" name="Straight Connector 677">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44DD22E5-8490-3C48-9E6D-E8E55341DC60}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44DD22E5-8490-3C48-9E6D-E8E55341DC60}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26880,7 +26879,7 @@
         <xdr:cNvPr id="708" name="Group 707">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E10CB6-CA2F-684B-B55A-E135FB29061C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5E10CB6-CA2F-684B-B55A-E135FB29061C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26899,7 +26898,7 @@
           <xdr:cNvPr id="709" name="Straight Connector 708">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D94399-071A-D54E-A102-4B03D78DD8AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6D94399-071A-D54E-A102-4B03D78DD8AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26937,7 +26936,7 @@
           <xdr:cNvPr id="710" name="Group 709">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87442B34-5F05-A446-8C10-C050E799DE5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87442B34-5F05-A446-8C10-C050E799DE5E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26956,7 +26955,7 @@
             <xdr:cNvPr id="711" name="Rectangle 710">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FE4DB2-F2C9-DC4F-85AB-744E9DF60D5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93FE4DB2-F2C9-DC4F-85AB-744E9DF60D5A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27037,7 +27036,7 @@
             <xdr:cNvPr id="712" name="Straight Connector 711">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B256E172-FB9A-314B-A287-AE5D56C86A6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B256E172-FB9A-314B-A287-AE5D56C86A6C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27076,7 +27075,7 @@
             <xdr:cNvPr id="713" name="TextBox 712">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCEE167-1DC2-3C4C-88FB-87429BF4C812}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCEE167-1DC2-3C4C-88FB-87429BF4C812}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27131,7 +27130,7 @@
             <xdr:cNvPr id="714" name="Straight Connector 713">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C2EE1B-17AB-3B4E-A606-535221C36CF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89C2EE1B-17AB-3B4E-A606-535221C36CF2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27170,7 +27169,7 @@
             <xdr:cNvPr id="715" name="Straight Connector 714">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A901F64D-0AB5-C240-A674-145BAE0CD525}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A901F64D-0AB5-C240-A674-145BAE0CD525}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27206,7 +27205,7 @@
             <xdr:cNvPr id="716" name="Straight Connector 715">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F0C948-69DD-C240-9EB1-93B33083AC89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F0C948-69DD-C240-9EB1-93B33083AC89}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27244,7 +27243,7 @@
             <xdr:cNvPr id="717" name="Straight Connector 716">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97644D8E-F2E8-CB45-B8D6-2616987B3F44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97644D8E-F2E8-CB45-B8D6-2616987B3F44}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27280,7 +27279,7 @@
             <xdr:cNvPr id="718" name="Straight Connector 717">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11426BE7-6DAB-084C-87BD-57CBC4DCF772}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11426BE7-6DAB-084C-87BD-57CBC4DCF772}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27318,7 +27317,7 @@
             <xdr:cNvPr id="719" name="TextBox 718">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B3A831-014F-A94D-8250-187A3067F60F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7B3A831-014F-A94D-8250-187A3067F60F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -27390,7 +27389,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E34425-1981-B346-AE30-67093911D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E34425-1981-B346-AE30-67093911D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27434,7 +27433,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BB6A86-A738-F843-96D7-1EEDC63A8557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94BB6A86-A738-F843-96D7-1EEDC63A8557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27478,7 +27477,7 @@
         <xdr:cNvPr id="732" name="Picture 731">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70982056-28F5-E248-A440-2E9B445D729B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70982056-28F5-E248-A440-2E9B445D729B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27522,7 +27521,7 @@
         <xdr:cNvPr id="733" name="Picture 732">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88DD5FC-AC6D-2C40-8C25-3225B9271F83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B88DD5FC-AC6D-2C40-8C25-3225B9271F83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27566,7 +27565,7 @@
         <xdr:cNvPr id="68" name="Picture 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E648F0B-81C0-DC44-8730-50CA53D3ABC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E648F0B-81C0-DC44-8730-50CA53D3ABC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27610,7 +27609,7 @@
         <xdr:cNvPr id="73" name="Down Arrow 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C151A74A-047C-384B-9244-86E2C2A0B8AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C151A74A-047C-384B-9244-86E2C2A0B8AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27670,7 +27669,7 @@
         <xdr:cNvPr id="734" name="Down Arrow 733">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9EB189-C629-9146-92EF-CC94EE0F8D5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE9EB189-C629-9146-92EF-CC94EE0F8D5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27730,7 +27729,7 @@
         <xdr:cNvPr id="735" name="Down Arrow 734">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AE4E5A-6C08-BB4E-A7BD-752E37EEE68C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17AE4E5A-6C08-BB4E-A7BD-752E37EEE68C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27790,7 +27789,7 @@
         <xdr:cNvPr id="736" name="Down Arrow 735">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E26137C-B84E-104A-A415-45E1C8ECEB3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E26137C-B84E-104A-A415-45E1C8ECEB3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27850,7 +27849,7 @@
         <xdr:cNvPr id="75" name="TextBox 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40169121-280C-3846-B6E1-B0057CFF30C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40169121-280C-3846-B6E1-B0057CFF30C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27920,7 +27919,7 @@
         <xdr:cNvPr id="737" name="TextBox 736">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282B1759-A31D-E948-92FE-96F746A19071}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{282B1759-A31D-E948-92FE-96F746A19071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27990,7 +27989,7 @@
         <xdr:cNvPr id="738" name="TextBox 737">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D537F3DF-497F-D744-B922-D3E35CC582D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D537F3DF-497F-D744-B922-D3E35CC582D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28060,7 +28059,7 @@
         <xdr:cNvPr id="739" name="TextBox 738">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C854BB-3F98-9548-A9B1-E779E121E2FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8C854BB-3F98-9548-A9B1-E779E121E2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28110,6 +28109,99 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="684" name="Picture 683" descr=" &#10;Uniform shape &#10;Uniform edge length &#10;Uniform angles &#10;Optimally compact &#10;Optimally space-filling &#10;Uniform adjacency &#10;Hierarchical relationships &#10;Perfect child containment &#10;Low shape distortion &#10;Low area distortion "/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9220200" y="82296000"/>
+          <a:ext cx="14833600" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>135465</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>162662</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17695332" y="82668532"/>
+          <a:ext cx="6360263" cy="5672667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -28377,18 +28469,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AH406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R339" zoomScale="75" workbookViewId="0">
-      <selection activeCell="CA358" sqref="CA358"/>
+    <sheetView tabSelected="1" topLeftCell="T400" zoomScale="75" workbookViewId="0">
+      <selection activeCell="CU426" sqref="CU426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="406" spans="34:34" x14ac:dyDescent="0.2">
+      <c r="AH406"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
